--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnt\Documents\Github\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF859C-9666-4EC2-9620-30C11C18F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B65BA3-59D6-4F29-A660-5A880EAD80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Sequence</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>Spatial Resoloution Contrast Response Manual</t>
-  </si>
-  <si>
-    <t>Why is this one so different to before?</t>
   </si>
 </sst>
 </file>
@@ -784,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -820,6 +817,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,6 +836,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -847,46 +870,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -901,16 +896,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1435,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F25" sqref="F20:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,27 +1444,27 @@
       <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1487,15 +1472,15 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1572,41 +1557,41 @@
       <c r="G11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="34">
         <v>96.13</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="36">
         <v>95.45</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="35">
         <f>IF(C12,ABS(C12-D12)/C12,"")</f>
         <v>7.0737542910641075E-3</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="37">
         <v>0.01</v>
       </c>
-      <c r="G12" s="56" t="str">
+      <c r="G12" s="38" t="str">
         <f>IF(E12&lt;=F12,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1616,7 +1601,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="12">
-        <v>-0.59</v>
+        <v>-0.39</v>
       </c>
       <c r="D13" s="4">
         <v>-0.36</v>
@@ -1625,13 +1610,11 @@
       <c r="F13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1648,11 +1631,11 @@
       <c r="F14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1662,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="12">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D15" s="4">
         <v>5.16</v>
@@ -1671,11 +1654,11 @@
       <c r="F15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1685,7 +1668,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="12">
-        <v>337.28</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D16" s="4">
         <v>330</v>
@@ -1694,11 +1677,11 @@
       <c r="F16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -1715,11 +1698,11 @@
       <c r="F17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -1736,12 +1719,11 @@
         <v>0.24376655099887667</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -1757,11 +1739,11 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -1778,11 +1760,11 @@
       <c r="F20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1799,11 +1781,11 @@
       <c r="F21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -1820,11 +1802,11 @@
       <c r="F22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
@@ -1841,11 +1823,11 @@
       <c r="F23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -1862,11 +1844,11 @@
       <c r="F24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1883,11 +1865,11 @@
       <c r="F25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -1900,14 +1882,14 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="24" t="s">
         <v>77</v>
       </c>
@@ -1915,14 +1897,14 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="24" t="s">
         <v>76</v>
       </c>
@@ -1930,14 +1912,14 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
@@ -1945,14 +1927,14 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="24" t="s">
         <v>73</v>
       </c>
@@ -1960,14 +1942,14 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="33"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="24" t="s">
         <v>74</v>
       </c>
@@ -1975,14 +1957,14 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -1993,14 +1975,14 @@
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -2013,11 +1995,11 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
@@ -2028,11 +2010,11 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
@@ -2043,11 +2025,11 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
@@ -2058,11 +2040,11 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="33"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
@@ -2073,11 +2055,11 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
@@ -2088,11 +2070,11 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="33"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
@@ -2103,11 +2085,11 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -2118,11 +2100,11 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2135,11 +2117,11 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -2150,11 +2132,11 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="33"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
@@ -2165,11 +2147,11 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
@@ -2180,11 +2162,11 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="33"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -2195,11 +2177,11 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="33"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -2210,11 +2192,11 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="33"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -2225,11 +2207,11 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="33"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
@@ -2240,37 +2222,14 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="33"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H19:K19"/>
@@ -2287,13 +2246,36 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G48">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnt\Documents\Github\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B65BA3-59D6-4F29-A660-5A880EAD80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3E14C-9755-450B-8CD6-3F8844C7607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
     <sheet name="ForthValley Ax T1" sheetId="2" r:id="rId2"/>
+    <sheet name="Shetland Ax T1" sheetId="5" r:id="rId3"/>
+    <sheet name="Gartnavel" sheetId="7" r:id="rId4"/>
+    <sheet name="Template" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>Sequence</t>
   </si>
@@ -126,9 +129,6 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Raig-01</t>
-  </si>
-  <si>
     <t>Test Description</t>
   </si>
   <si>
@@ -213,21 +213,9 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>0.6mm</t>
-  </si>
-  <si>
-    <t>3.0% relative</t>
-  </si>
-  <si>
-    <t>0.5% absolute</t>
-  </si>
-  <si>
     <t>Geometric Accuracy MagNet Method</t>
   </si>
   <si>
-    <t>Geometric Accuracy ACR Method</t>
-  </si>
-  <si>
     <t>Spatial Resoloution Contrast Response Automatic</t>
   </si>
   <si>
@@ -249,33 +237,9 @@
     <t>Col Bottom (mm)</t>
   </si>
   <si>
-    <t>Horizontal CoV</t>
-  </si>
-  <si>
-    <t>Vertical CoV</t>
-  </si>
-  <si>
     <t>ForthValley Ax T1'!A1</t>
   </si>
   <si>
-    <t>Diagonal distance SW (mm)</t>
-  </si>
-  <si>
-    <t>Diagonal distance SE (mm)</t>
-  </si>
-  <si>
-    <t>Slice 5 Vert Dist (mm)</t>
-  </si>
-  <si>
-    <t>Slice 5 Hor Dist (mm)</t>
-  </si>
-  <si>
-    <t>Slice 1 Vert Dist  (mm)</t>
-  </si>
-  <si>
-    <t>Slice 1 Hor Dist  (mm)</t>
-  </si>
-  <si>
     <t>1.1mm Horizontal</t>
   </si>
   <si>
@@ -301,14 +265,55 @@
   </si>
   <si>
     <t>Spatial Resoloution Contrast Response Manual</t>
+  </si>
+  <si>
+    <t>b0a868e</t>
+  </si>
+  <si>
+    <t>Unclear Peaks and Troughs</t>
+  </si>
+  <si>
+    <t>First peak not captured in range</t>
+  </si>
+  <si>
+    <t>ForthValley V1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Shetland Ax T1 V1</t>
+  </si>
+  <si>
+    <t>Initial Overall Test</t>
+  </si>
+  <si>
+    <t>Imngenia Ambition S</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Shetland Ax T1'!A1</t>
+  </si>
+  <si>
+    <t>Philips Ingenia 1.5T</t>
+  </si>
+  <si>
+    <t>ACR_ac_T1</t>
+  </si>
+  <si>
+    <t>Gart_Ax_V1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -357,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -480,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -662,11 +658,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -674,7 +765,143 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -683,96 +910,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -792,64 +934,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,18 +1004,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -896,6 +1053,137 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1232,7 +1520,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1559,12 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1305,8 +1598,11 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>72</v>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,6 +1707,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" location="'ForthValley Ax T1'!A1" display="'ForthValley Ax T1'!A1" xr:uid="{B82E344A-81FB-45CC-9A65-7B863D620892}"/>
+    <hyperlink ref="E2" location="'Shetland Ax T1'!A1" display="'Shetland Ax T1'!A1" xr:uid="{2E8C2676-0C94-404A-A938-F29D2A8670F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1418,117 +1715,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:K13"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45547</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="E6" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="E7" s="18">
+        <v>45365</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="11">
-        <v>45539</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="21">
-        <v>45365</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1536,704 +1839,863 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="47" t="s">
+      <c r="C12" s="26">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>2.0742584526030811E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G19" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-0.39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-1.17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>7.9999999999999849E-2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.16</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>6.0000000000000497E-2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10">
+        <v>337.28</v>
+      </c>
+      <c r="D16" s="3">
+        <v>330</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>2.2060606060605979E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4512.28</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4412</v>
+      </c>
+      <c r="E17" s="30">
+        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
+        <v>2.2728921124206651E-2</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="34">
-        <v>96.13</v>
-      </c>
-      <c r="D12" s="36">
-        <v>95.45</v>
-      </c>
-      <c r="E12" s="35">
-        <f>IF(C12,ABS(C12-D12)/C12,"")</f>
-        <v>7.0737542910641075E-3</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="38" t="str">
-        <f>IF(E12&lt;=F12,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12">
-        <v>-0.39</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-0.36</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="22" t="s">
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D18" s="3">
+        <v>79.81</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21">
+        <v>79.67</v>
+      </c>
+      <c r="D19" s="21">
+        <v>80</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="D20" s="21">
+        <v>80.2</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" ref="G20:G40" si="2">IF(E20 &lt;&gt; "Not Run", IF(F20, IF( E20&lt;=F20,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="21">
+        <v>80.11</v>
+      </c>
+      <c r="D21" s="21">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21">
+        <v>79.89</v>
+      </c>
+      <c r="D22" s="21">
+        <v>80</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21">
+        <v>80.27</v>
+      </c>
+      <c r="D23" s="21">
+        <v>80.2</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="31">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.3664</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>2.4399999999999977E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.43540000000000001</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4600000000000002E-2</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D27" s="30">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>2.2099999999999998E-2</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D28" s="30">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>4.8799999999999982E-2</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D30" s="30">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31" s="30">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0200000000000008E-2</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D32" s="30">
+        <v>2.64E-2</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="12">
-        <v>-1.17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-1.0900000000000001</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5.16</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D16" s="4">
-        <v>330</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4512.33</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4412</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="B33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.4098</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="1"/>
+        <v>1.150000000000001E-2</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="30">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="30">
+        <v>3.56E-2</v>
+      </c>
+      <c r="D36" s="30">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="28">
-        <f>_xlfn.STDEV.S(D20:D22)/AVERAGE(D20:D22)*100</f>
-        <v>0.24376655099887667</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="C37" s="30">
+        <v>0.3221</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>6.1900000000000011E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="30">
-        <v>0.24</v>
-      </c>
-      <c r="D19" s="28">
-        <f>_xlfn.STDEV.S(D23:D25)/AVERAGE(D23:D25)*100</f>
-        <v>0.24937655860349484</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="4">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="D20" s="4">
-        <v>79.81</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="27">
-        <v>79.67</v>
-      </c>
-      <c r="D21" s="27">
-        <v>80</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="27">
-        <v>79.930000000000007</v>
-      </c>
-      <c r="D22" s="27">
-        <v>80.2</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="27">
-        <v>80.11</v>
-      </c>
-      <c r="D23" s="27">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="27">
-        <v>79.89</v>
-      </c>
-      <c r="D24" s="27">
-        <v>80</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="27">
-        <v>80.27</v>
-      </c>
-      <c r="D25" s="27">
-        <v>80.2</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="24" t="s">
+      <c r="C38" s="30">
+        <v>0.1123</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2700000000000003E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="30">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0.1227</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>4.7800000000000009E-2</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="49">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D40" s="49">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" si="1"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="24">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="44"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="44"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="44"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="44"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="44"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="44"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="44"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="44"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="31">
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
@@ -2241,40 +2703,2876 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H33:K33"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G40">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45547</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="59">
+        <v>45447</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.9496</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>5.7919123841616987E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.08</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10">
+        <v>286.56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>3.6758321273516734E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3925.42</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3783</v>
+      </c>
+      <c r="E17" s="30">
+        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
+        <v>3.7647369812318282E-2</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3">
+        <v>79.66</v>
+      </c>
+      <c r="D18" s="3">
+        <v>80.03</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21">
+        <v>79.87</v>
+      </c>
+      <c r="D19" s="21">
+        <v>79.72</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21">
+        <v>79.64</v>
+      </c>
+      <c r="D20" s="21">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="21">
+        <v>79.72</v>
+      </c>
+      <c r="D21" s="21">
+        <v>79.13</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.59000000000000341</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21">
+        <v>79.8</v>
+      </c>
+      <c r="D22" s="21">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21">
+        <v>79.95</v>
+      </c>
+      <c r="D23" s="21">
+        <v>80.2</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="D24" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="1"/>
+        <v>4.0599999999999969E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E34" s="30">
+        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="30">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <f>IF(C35,ABS(C35-D35),"Not Run")</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="30">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="D36" s="30">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999992E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9199999999999928E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0.1164</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>6.6700000000000009E-2</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="49">
+        <v>0.1095</v>
+      </c>
+      <c r="D40" s="49">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" si="1"/>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H40:K40"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G48">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="G12:G40">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680AEDF1-8AC6-42DA-933A-EFE13CB6E68C}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45547</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="53">
+        <v>45370</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>4.3290043290044244E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>0.17000000000000015</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-0.39</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10">
+        <v>262.08999999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>251.7</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>4.1279300754866854E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4685.1099999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4495</v>
+      </c>
+      <c r="E17" s="30">
+        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
+        <v>4.2293659621801927E-2</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>79.83</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
+        <v>76.899999999999991</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2.93</v>
+      </c>
+      <c r="D19" s="21">
+        <v>79.28</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>76.349999999999994</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D20" s="21">
+        <v>80.38</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>74.52</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D21" s="21">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>74.930000000000007</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D22" s="21">
+        <v>79.97</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>74.11</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D23" s="21">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>74.38</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="31">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="D24" s="63">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000002E-4</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="E25" s="30">
+        <f>IF(C25,ABS(C25-D25),"Not Run")</f>
+        <v>2.0500000000000074E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.161</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.1459</v>
+      </c>
+      <c r="E26" s="30">
+        <f>IF(C26,ABS(C26-D26),"Not Run")</f>
+        <v>1.5100000000000002E-2</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.113</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>4.7000000000000097E-3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="30">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.52</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000066E-2</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.1983</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="30">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D31" s="30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="1"/>
+        <v>2.5899999999999923E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.2351</v>
+      </c>
+      <c r="E34" s="30">
+        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
+        <v>4.4000000000000011E-2</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="30">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <f>IF(C35,ABS(C35-D35),"Not Run")</f>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="30">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="D36" s="30">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999963E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>8.2899999999999974E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D39" s="30">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>7.7599999999999988E-2</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="49">
+        <v>0.1138</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G40">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5456C32-023B-493B-A691-A8BC4ED0F11F}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26" t="str">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10" t="str">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10" t="str">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10" t="str">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="30" t="str">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="30" t="str">
+        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10" t="str">
+        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G40">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3E14C-9755-450B-8CD6-3F8844C7607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BAF61-7DFB-4EE7-BF23-389EC756BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
     <sheet name="ForthValley Ax T1" sheetId="2" r:id="rId2"/>
     <sheet name="Shetland Ax T1" sheetId="5" r:id="rId3"/>
     <sheet name="Gartnavel" sheetId="7" r:id="rId4"/>
-    <sheet name="Template" sheetId="4" r:id="rId5"/>
+    <sheet name="Raig 2 Ax T1 SE" sheetId="8" r:id="rId5"/>
+    <sheet name="Raig 1 ACR AxT2" sheetId="9" r:id="rId6"/>
+    <sheet name="Template" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="86">
   <si>
     <t>Sequence</t>
   </si>
@@ -93,36 +95,18 @@
     <t>ACR_ax_T1</t>
   </si>
   <si>
-    <t>ACR AxT1</t>
-  </si>
-  <si>
     <t>ACR AxT2</t>
   </si>
   <si>
-    <t>Ax T2 SE</t>
-  </si>
-  <si>
     <t>Sag T1 SE</t>
   </si>
   <si>
-    <t>Sag T2 SE</t>
-  </si>
-  <si>
     <t>Cor T1 SE</t>
   </si>
   <si>
-    <t>Cor T2 SE</t>
-  </si>
-  <si>
-    <t>Sag_T1_ACR_Lothian</t>
-  </si>
-  <si>
     <t>Ax_T1_ACR_Lothian</t>
   </si>
   <si>
-    <t>Cor_T1_ACR_Lothian</t>
-  </si>
-  <si>
     <t>Link to Results</t>
   </si>
   <si>
@@ -189,9 +173,6 @@
     <t>Distance (mm)</t>
   </si>
   <si>
-    <t>Normalised SNR</t>
-  </si>
-  <si>
     <t>Signal-to-Bkgd ratio</t>
   </si>
   <si>
@@ -304,6 +285,21 @@
   </si>
   <si>
     <t>Gart_Ax_V1</t>
+  </si>
+  <si>
+    <t>Gartnavel!A1</t>
+  </si>
+  <si>
+    <t>Signa Artist</t>
+  </si>
+  <si>
+    <t>Raig1_Ax_T1_SE</t>
+  </si>
+  <si>
+    <t>Raig 2 Ax T1 SE'!A1</t>
+  </si>
+  <si>
+    <t>Raig_1_Ax_T2</t>
   </si>
 </sst>
 </file>
@@ -962,12 +958,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,6 +975,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,19 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1032,13 +1025,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1517,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E31CE-8653-4894-8E4F-D4DEA5E43A27}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,157 +1625,105 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" location="'ForthValley Ax T1'!A1" display="'ForthValley Ax T1'!A1" xr:uid="{B82E344A-81FB-45CC-9A65-7B863D620892}"/>
+    <hyperlink ref="E3" location="'ForthValley Ax T1'!A1" display="'ForthValley Ax T1'!A1" xr:uid="{B82E344A-81FB-45CC-9A65-7B863D620892}"/>
     <hyperlink ref="E2" location="'Shetland Ax T1'!A1" display="'Shetland Ax T1'!A1" xr:uid="{2E8C2676-0C94-404A-A938-F29D2A8670F7}"/>
+    <hyperlink ref="E4" location="Gartnavel!A1" display="Gartnavel!A1" xr:uid="{E5CB2BAD-24C7-4607-8AEC-2892A5B39488}"/>
+    <hyperlink ref="E6" location="'Raig 2 Ax T1 SE'!A1" display="'Raig 2 Ax T1 SE'!A1" xr:uid="{D4201408-691F-436F-A3CE-0D6ABBB758B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1715,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,75 +1749,71 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1812,16 +1824,16 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>31</v>
+      <c r="D6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="18">
         <v>45365</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1840,39 +1852,39 @@
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="C12" s="26">
         <v>0.96220000000000006</v>
@@ -1888,20 +1900,20 @@
         <v>0.01</v>
       </c>
       <c r="G12" s="28" t="str">
-        <f t="shared" ref="G12:G19" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+        <f t="shared" ref="G12:G18" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="10">
         <v>-0.39</v>
@@ -1920,15 +1932,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10">
         <v>-1.17</v>
@@ -1947,17 +1959,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10">
         <v>5.0999999999999996</v>
@@ -1976,17 +1988,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10">
         <v>337.28</v>
@@ -2005,54 +2017,54 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4512.28</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>80.069999999999993</v>
       </c>
       <c r="D17" s="3">
-        <v>4412</v>
-      </c>
-      <c r="E17" s="30">
-        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
-        <v>2.2728921124206651E-2</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.03</v>
+        <v>79.81</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
       </c>
       <c r="G17" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="D18" s="3">
-        <v>79.81</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D18" s="21">
+        <v>80</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
-        <v>0.25999999999999091</v>
+        <f t="shared" si="1"/>
+        <v>0.34999999999999432</v>
       </c>
       <c r="F18" s="19">
         <v>0.6</v>
@@ -2061,79 +2073,79 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21">
-        <v>79.67</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="D19" s="21">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.32999999999999829</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
       </c>
       <c r="G19" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+        <f t="shared" ref="G19:G39" si="2">IF(E19 &lt;&gt; "Not Run", IF(F19, IF( E19&lt;=F19,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21">
-        <v>79.930000000000007</v>
+        <v>80.23</v>
       </c>
       <c r="D20" s="21">
-        <v>80.2</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>0.26999999999999602</v>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F20" s="19">
         <v>0.6</v>
       </c>
       <c r="G20" s="28" t="str">
-        <f t="shared" ref="G20:G40" si="2">IF(E20 &lt;&gt; "Not Run", IF(F20, IF( E20&lt;=F20,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21">
-        <v>80.11</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="D21" s="21">
-        <v>80.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>0.29000000000000625</v>
+        <v>6.9999999999993179E-2</v>
       </c>
       <c r="F21" s="19">
         <v>0.6</v>
@@ -2142,25 +2154,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="21">
-        <v>79.89</v>
+        <v>80.28</v>
       </c>
       <c r="D22" s="21">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>0.10999999999999943</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="F22" s="19">
         <v>0.6</v>
@@ -2169,83 +2181,83 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21">
-        <v>80.27</v>
-      </c>
-      <c r="D23" s="21">
-        <v>80.2</v>
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1E-4</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>6.9999999999993179E-2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.6</v>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="28" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>1.9999999999999998E-5</v>
-      </c>
-      <c r="F24" s="32">
-        <v>5.0000000000000001E-3</v>
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.3664</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>2.4399999999999977E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
       </c>
       <c r="G24" s="28" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="30">
-        <v>0.34200000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="D25" s="30">
-        <v>0.3664</v>
+        <v>0.43540000000000001</v>
       </c>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>2.4399999999999977E-2</v>
+        <v>1.4600000000000002E-2</v>
       </c>
       <c r="F25" s="30">
         <v>0.08</v>
@@ -2254,25 +2266,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26" s="30">
-        <v>0.45</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D26" s="30">
-        <v>0.43540000000000001</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E26" s="30">
         <f t="shared" si="1"/>
-        <v>1.4600000000000002E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="F26" s="30">
         <v>0.08</v>
@@ -2281,25 +2293,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C27" s="30">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D27" s="30">
-        <v>3.0099999999999998E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="E27" s="30">
         <f t="shared" si="1"/>
-        <v>2.2099999999999998E-2</v>
+        <v>5.9999999999999984E-4</v>
       </c>
       <c r="F27" s="30">
         <v>0.08</v>
@@ -2308,25 +2320,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="30">
-        <v>2.1999999999999999E-2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D28" s="30">
-        <v>2.1399999999999999E-2</v>
+        <v>0.24979999999999999</v>
       </c>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>5.9999999999999984E-4</v>
+        <v>4.8799999999999982E-2</v>
       </c>
       <c r="F28" s="30">
         <v>0.08</v>
@@ -2335,25 +2347,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="30">
-        <v>0.20100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D29" s="30">
-        <v>0.24979999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>4.8799999999999982E-2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="30">
         <v>0.08</v>
@@ -2362,25 +2374,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" s="30">
-        <v>9.1999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D30" s="30">
-        <v>9.1999999999999998E-2</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0200000000000008E-2</v>
       </c>
       <c r="F30" s="30">
         <v>0.08</v>
@@ -2389,25 +2401,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" s="30">
-        <v>7.0000000000000007E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D31" s="30">
-        <v>5.9799999999999999E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>1.0200000000000008E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="F31" s="30">
         <v>0.08</v>
@@ -2416,25 +2428,27 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C32" s="30">
-        <v>1.9E-2</v>
+        <v>0.49940000000000001</v>
       </c>
       <c r="D32" s="30">
-        <v>2.64E-2</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>7.4000000000000003E-3</v>
+        <v>8.0999999999999961E-3</v>
       </c>
       <c r="F32" s="30">
         <v>0.08</v>
@@ -2443,27 +2457,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="30">
-        <v>0.49940000000000001</v>
+        <v>0.4098</v>
       </c>
       <c r="D33" s="30">
-        <v>0.49130000000000001</v>
+        <v>0.42130000000000001</v>
       </c>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>8.0999999999999961E-3</v>
+        <v>1.150000000000001E-2</v>
       </c>
       <c r="F33" s="30">
         <v>0.08</v>
@@ -2472,25 +2484,27 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
+      <c r="H33" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" s="30">
-        <v>0.4098</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="D34" s="30">
-        <v>0.42130000000000001</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>1.150000000000001E-2</v>
+        <v>5.7499999999999996E-2</v>
       </c>
       <c r="F34" s="30">
         <v>0.08</v>
@@ -2499,27 +2513,27 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="H34" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="30">
-        <v>7.2599999999999998E-2</v>
+        <v>3.56E-2</v>
       </c>
       <c r="D35" s="30">
-        <v>0.13009999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>5.7499999999999996E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F35" s="30">
         <v>0.08</v>
@@ -2528,27 +2542,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="30">
-        <v>3.56E-2</v>
+        <v>0.3221</v>
       </c>
       <c r="D36" s="30">
-        <v>3.1E-2</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>4.5999999999999999E-3</v>
+        <v>6.1900000000000011E-2</v>
       </c>
       <c r="F36" s="30">
         <v>0.08</v>
@@ -2557,25 +2569,27 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+      <c r="H36" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="30">
-        <v>0.3221</v>
+        <v>0.1123</v>
       </c>
       <c r="D37" s="30">
-        <v>0.26019999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>6.1900000000000011E-2</v>
+        <v>1.2700000000000003E-2</v>
       </c>
       <c r="F37" s="30">
         <v>0.08</v>
@@ -2584,27 +2598,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" s="30">
-        <v>0.1123</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="D38" s="30">
-        <v>0.125</v>
+        <v>0.1227</v>
       </c>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>1.2700000000000003E-2</v>
+        <v>4.7800000000000009E-2</v>
       </c>
       <c r="F38" s="30">
         <v>0.08</v>
@@ -2613,25 +2625,25 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="30">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="D39" s="30">
-        <v>0.1227</v>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D39" s="33">
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>4.7800000000000009E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="F39" s="30">
         <v>0.08</v>
@@ -2640,75 +2652,1995 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="49">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="D40" s="49">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="E40" s="30">
-        <f t="shared" si="1"/>
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="G40" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v>PASS</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="H39" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
+  <mergeCells count="30">
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G39">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45547</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="41">
+        <v>45447</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.9496</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>5.7919123841616987E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.08</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10">
+        <v>286.56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>3.6758321273516734E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79.59</v>
+      </c>
+      <c r="D17" s="3">
+        <v>80.03</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>79.94</v>
+      </c>
+      <c r="D18" s="21">
+        <v>79.72</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="21">
+        <v>79.63</v>
+      </c>
+      <c r="D19" s="21">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21">
+        <v>79.8</v>
+      </c>
+      <c r="D20" s="21">
+        <v>79.13</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="21">
+        <v>79.8</v>
+      </c>
+      <c r="D21" s="21">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="21">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D22" s="21">
+        <v>80.2</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="D23" s="42">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999926E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999802E-3</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.124</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.621</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.441</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="30">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999982E-2</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>4.0599999999999969E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E33" s="30">
+        <f>IF(C33,ABS(C33-D33),"Not Run")</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="D34" s="30">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="E34" s="30">
+        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999992E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9199999999999928E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.1164</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>6.6700000000000009E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.1095</v>
+      </c>
+      <c r="D39" s="33">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G40">
+  <conditionalFormatting sqref="G12:G39">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680AEDF1-8AC6-42DA-933A-EFE13CB6E68C}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45547</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="35">
+        <v>45370</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>4.3290043290044244E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>0.17000000000000015</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-0.39</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10">
+        <v>262.08999999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>251.7</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>4.1279300754866854E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.42</v>
+      </c>
+      <c r="D17" s="3">
+        <v>79.83</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>76.41</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2.93</v>
+      </c>
+      <c r="D18" s="21">
+        <v>79.28</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>76.349999999999994</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2.93</v>
+      </c>
+      <c r="D19" s="21">
+        <v>80.38</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>77.449999999999989</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D20" s="21">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>74.930000000000007</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D21" s="21">
+        <v>79.97</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>74.11</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="D22" s="21">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>74.38</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="D23" s="42">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000002E-4</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="E24" s="30">
+        <f>IF(C24,ABS(C24-D24),"Not Run")</f>
+        <v>2.0500000000000074E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.161</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.1459</v>
+      </c>
+      <c r="E25" s="30">
+        <f>IF(C25,ABS(C25-D25),"Not Run")</f>
+        <v>1.5100000000000002E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.113</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>4.7000000000000097E-3</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="30">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.52</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000066E-2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.1983</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="30">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D30" s="30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>2.5899999999999923E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.2351</v>
+      </c>
+      <c r="E33" s="30">
+        <f>IF(C33,ABS(C33-D33),"Not Run")</f>
+        <v>4.4000000000000011E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D34" s="30">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="E34" s="30">
+        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999963E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.2238</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D38" s="30">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>7.7599999999999988E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.1138</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G39">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
@@ -2727,12 +4659,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
-  <dimension ref="A1:M40"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582CA64-840D-4D3C-A94A-D21D51863C48}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,82 +4672,78 @@
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -2826,106 +4754,106 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="59">
-        <v>45447</v>
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="63">
+        <v>45440</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="26">
-        <v>0.94410000000000005</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="D12" s="27">
-        <v>0.9496</v>
+        <v>0.96179999999999999</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>5.7919123841616987E-3</v>
+        <v>6.9661052193803691E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.01</v>
       </c>
       <c r="G12" s="28" t="str">
-        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" s="10">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="D13" s="3">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="E13" s="10">
         <f>IF(C13,ABS(C13-D13),"Not Run")</f>
-        <v>0.11999999999999988</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F13" s="19">
         <v>0.6</v>
@@ -2934,25 +4862,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="D14" s="3">
-        <v>0.01</v>
+        <v>1.41</v>
       </c>
       <c r="E14" s="10">
         <f>IF(C14,ABS(C14-D14),"Not Run")</f>
-        <v>0.19</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="F14" s="19">
         <v>0.6</v>
@@ -2961,27 +4889,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10">
-        <v>5.08</v>
+        <v>5.53</v>
       </c>
       <c r="D15" s="3">
-        <v>5.2</v>
+        <v>5.95</v>
       </c>
       <c r="E15" s="10">
         <f>IF(C15,ABS(C15-D15),"Not Run")</f>
-        <v>0.12000000000000011</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="F15" s="19">
         <v>0.6</v>
@@ -2990,83 +4918,83 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10">
-        <v>286.56</v>
+        <v>324.19</v>
       </c>
       <c r="D16" s="3">
-        <v>276.39999999999998</v>
+        <v>332</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>3.6758321273516734E-2</v>
+        <v>2.3524096385542176E-2</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3925.42</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79.87</v>
       </c>
       <c r="D17" s="3">
-        <v>3783</v>
-      </c>
-      <c r="E17" s="30">
-        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
-        <v>3.7647369812318282E-2</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.03</v>
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
       </c>
       <c r="G17" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3">
-        <v>79.66</v>
-      </c>
-      <c r="D18" s="3">
-        <v>80.03</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>79.95</v>
+      </c>
+      <c r="D18" s="21">
+        <v>79.900000000000006</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
-        <v>0.37000000000000455</v>
+        <f t="shared" si="1"/>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="F18" s="19">
         <v>0.6</v>
@@ -3075,25 +5003,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21">
-        <v>79.87</v>
+        <v>79.739999999999995</v>
       </c>
       <c r="D19" s="21">
-        <v>79.72</v>
+        <v>79.7</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.15000000000000568</v>
+        <v>3.9999999999992042E-2</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -3102,25 +5030,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21">
-        <v>79.64</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="D20" s="21">
-        <v>80.010000000000005</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>0.37000000000000455</v>
+        <v>0.46999999999999886</v>
       </c>
       <c r="F20" s="19">
         <v>0.6</v>
@@ -3129,25 +5057,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21">
-        <v>79.72</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D21" s="21">
-        <v>79.13</v>
+        <v>80.2</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>0.59000000000000341</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="F21" s="19">
         <v>0.6</v>
@@ -3156,25 +5084,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="21">
-        <v>79.8</v>
+        <v>80.2</v>
       </c>
       <c r="D22" s="21">
-        <v>79.430000000000007</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>0.36999999999999034</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="F22" s="19">
         <v>0.6</v>
@@ -3183,269 +5111,301 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21">
-        <v>79.95</v>
-      </c>
-      <c r="D23" s="21">
-        <v>80.2</v>
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.6</v>
+        <v>1.5999999999999999E-4</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="D24" s="63">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7699999999999999E-3</v>
-      </c>
-      <c r="F24" s="32">
-        <v>5.0000000000000001E-3</v>
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
       </c>
       <c r="G24" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="F25" s="30">
         <v>0.08</v>
       </c>
       <c r="G25" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.52</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3300000000000043E-2</v>
       </c>
       <c r="F26" s="30">
         <v>0.08</v>
       </c>
       <c r="G26" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="30">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000005E-3</v>
       </c>
       <c r="F27" s="30">
         <v>0.08</v>
       </c>
       <c r="G27" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000604E-3</v>
       </c>
       <c r="F28" s="30">
         <v>0.08</v>
       </c>
       <c r="G28" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.82</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000034E-2</v>
       </c>
       <c r="F29" s="30">
         <v>0.08</v>
       </c>
       <c r="G29" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.438</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999976E-2</v>
       </c>
       <c r="F30" s="30">
         <v>0.08</v>
       </c>
       <c r="G30" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.2006</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000008E-2</v>
       </c>
       <c r="F31" s="30">
         <v>0.08</v>
       </c>
       <c r="G31" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+        <v>59</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000357E-3</v>
       </c>
       <c r="F32" s="30">
         <v>0.08</v>
       </c>
       <c r="G32" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="30">
-        <v>0.72540000000000004</v>
+        <v>0.93489999999999995</v>
       </c>
       <c r="D33" s="30">
-        <v>0.76600000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>4.0599999999999969E-2</v>
+        <v>6.0899999999999954E-2</v>
       </c>
       <c r="F33" s="30">
         <v>0.08</v>
@@ -3454,25 +5414,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" s="30">
-        <v>0.32150000000000001</v>
+        <v>0.66930000000000001</v>
       </c>
       <c r="D34" s="30">
-        <v>0.29749999999999999</v>
+        <v>0.68669999999999998</v>
       </c>
       <c r="E34" s="30">
-        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
-        <v>2.4000000000000021E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7399999999999971E-2</v>
       </c>
       <c r="F34" s="30">
         <v>0.08</v>
@@ -3481,25 +5441,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="30">
-        <v>8.8700000000000001E-2</v>
+        <v>0.1867</v>
       </c>
       <c r="D35" s="30">
-        <v>6.7900000000000002E-2</v>
+        <v>0.22070000000000001</v>
       </c>
       <c r="E35" s="30">
-        <f>IF(C35,ABS(C35-D35),"Not Run")</f>
-        <v>2.0799999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F35" s="30">
         <v>0.08</v>
@@ -3508,25 +5468,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="30">
-        <v>6.0600000000000001E-2</v>
+        <v>0.97650000000000003</v>
       </c>
       <c r="D36" s="30">
-        <v>9.8599999999999993E-2</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>3.7999999999999992E-2</v>
+        <v>3.3500000000000085E-2</v>
       </c>
       <c r="F36" s="30">
         <v>0.08</v>
@@ -3535,25 +5495,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="30">
-        <v>0.74519999999999997</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="D37" s="30">
-        <v>0.67600000000000005</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>6.9199999999999928E-2</v>
+        <v>4.1999999999999815E-3</v>
       </c>
       <c r="F37" s="30">
         <v>0.08</v>
@@ -3562,25 +5522,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" s="30">
-        <v>0.48259999999999997</v>
+        <v>0.498</v>
       </c>
       <c r="D38" s="30">
-        <v>0.44019999999999998</v>
+        <v>0.51259999999999994</v>
       </c>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>4.2399999999999993E-2</v>
+        <v>1.4599999999999946E-2</v>
       </c>
       <c r="F38" s="30">
         <v>0.08</v>
@@ -3589,25 +5549,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0.1164</v>
-      </c>
-      <c r="D39" s="30">
-        <v>0.18310000000000001</v>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.14480000000000001</v>
       </c>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>6.6700000000000009E-2</v>
+        <v>5.9399999999999981E-2</v>
       </c>
       <c r="F39" s="30">
         <v>0.08</v>
@@ -3616,65 +5576,37 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="49">
-        <v>0.1095</v>
-      </c>
-      <c r="D40" s="49">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="E40" s="30">
-        <f t="shared" si="1"/>
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="G40" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H40:K40"/>
+  <mergeCells count="30">
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
@@ -3682,7 +5614,7 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G40">
+  <conditionalFormatting sqref="G12:G39">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
@@ -3701,12 +5633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680AEDF1-8AC6-42DA-933A-EFE13CB6E68C}">
-  <dimension ref="A1:M40"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,75 +5653,71 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="44"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
-        <v>45547</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+        <v>45552</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3800,247 +5728,233 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>85</v>
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="53">
-        <v>45370</v>
-      </c>
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="26">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0.97019999999999995</v>
-      </c>
-      <c r="E12" s="26">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26" t="e">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>4.3290043290044244E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="27">
         <v>0.01</v>
       </c>
-      <c r="G12" s="28" t="str">
-        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="G12" s="28" t="e">
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" s="10">
-        <v>1.56</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.39</v>
-      </c>
+        <v>-1.56</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="10">
         <f>IF(C13,ABS(C13-D13),"Not Run")</f>
-        <v>0.17000000000000015</v>
+        <v>1.56</v>
       </c>
       <c r="F13" s="19">
         <v>0.6</v>
       </c>
       <c r="G13" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10">
-        <v>-0.39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-0.57999999999999996</v>
-      </c>
+        <v>-1.76</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="10">
         <f>IF(C14,ABS(C14-D14),"Not Run")</f>
-        <v>0.18999999999999995</v>
+        <v>1.76</v>
       </c>
       <c r="F14" s="19">
         <v>0.6</v>
       </c>
       <c r="G14" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5.14</v>
-      </c>
+        <v>5.15</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="10">
         <f>IF(C15,ABS(C15-D15),"Not Run")</f>
-        <v>0.19999999999999929</v>
+        <v>5.15</v>
       </c>
       <c r="F15" s="19">
         <v>0.6</v>
       </c>
       <c r="G15" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10">
-        <v>262.08999999999997</v>
+        <v>237.48</v>
       </c>
       <c r="D16" s="3">
-        <v>251.7</v>
+        <v>237</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>4.1279300754866854E-2</v>
+        <v>2.0253164556961593E-3</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79.67</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>79.67</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4685.1099999999997</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4495</v>
-      </c>
-      <c r="E17" s="30">
-        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
-        <v>4.2293659621801927E-2</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="G17" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.93</v>
-      </c>
-      <c r="D18" s="3">
-        <v>79.83</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>79.98</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
-        <v>76.899999999999991</v>
+        <f t="shared" si="1"/>
+        <v>79.98</v>
       </c>
       <c r="F18" s="19">
         <v>0.6</v>
@@ -4049,25 +5963,23 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21">
-        <v>2.93</v>
-      </c>
-      <c r="D19" s="21">
-        <v>79.28</v>
-      </c>
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>76.349999999999994</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -4076,25 +5988,23 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="D20" s="21">
-        <v>80.38</v>
-      </c>
+        <v>79.64</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>74.52</v>
+        <v>79.64</v>
       </c>
       <c r="F20" s="19">
         <v>0.6</v>
@@ -4103,25 +6013,23 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="D21" s="21">
-        <v>80.790000000000006</v>
-      </c>
+        <v>79.930000000000007</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>74.930000000000007</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="F21" s="19">
         <v>0.6</v>
@@ -4130,25 +6038,23 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="D22" s="21">
-        <v>79.97</v>
-      </c>
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>74.11</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F22" s="19">
         <v>0.6</v>
@@ -4157,355 +6063,313 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="D23" s="21">
-        <v>80.239999999999995</v>
-      </c>
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="D23" s="31"/>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>74.38</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.6</v>
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31">
-        <v>4.0999999999999999E-4</v>
-      </c>
-      <c r="D24" s="63">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000002E-4</v>
-      </c>
-      <c r="F24" s="32">
-        <v>5.0000000000000001E-3</v>
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
       </c>
       <c r="G24" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="30">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D25" s="30">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="E25" s="30">
-        <f>IF(C25,ABS(C25-D25),"Not Run")</f>
-        <v>2.0500000000000074E-2</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F25" s="30">
         <v>0.08</v>
       </c>
       <c r="G25" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="30">
-        <v>0.161</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0.1459</v>
-      </c>
-      <c r="E26" s="30">
-        <f>IF(C26,ABS(C26-D26),"Not Run")</f>
-        <v>1.5100000000000002E-2</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F26" s="30">
         <v>0.08</v>
       </c>
       <c r="G26" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="30">
-        <v>0.113</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0.10829999999999999</v>
-      </c>
-      <c r="E27" s="30">
-        <f t="shared" si="1"/>
-        <v>4.7000000000000097E-3</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F27" s="30">
         <v>0.08</v>
       </c>
       <c r="G27" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="D28" s="30">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E28" s="30">
-        <f t="shared" si="1"/>
-        <v>1.2499999999999999E-2</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F28" s="30">
         <v>0.08</v>
       </c>
       <c r="G28" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="30">
-        <v>0.52</v>
-      </c>
-      <c r="D29" s="30">
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1500000000000066E-2</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F29" s="30">
         <v>0.08</v>
       </c>
       <c r="G29" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="30">
-        <v>0.1983</v>
-      </c>
-      <c r="E30" s="30">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000071E-3</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F30" s="30">
         <v>0.08</v>
       </c>
       <c r="G30" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="30">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D31" s="30">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E31" s="30">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
       </c>
       <c r="F31" s="30">
         <v>0.08</v>
       </c>
       <c r="G31" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C32" s="30">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D32" s="30">
-        <v>1.1900000000000001E-2</v>
-      </c>
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>3.5099999999999999E-2</v>
+        <v>0.56710000000000005</v>
       </c>
       <c r="F32" s="30">
         <v>0.08</v>
       </c>
       <c r="G32" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="30">
-        <v>0.69210000000000005</v>
-      </c>
-      <c r="D33" s="30">
-        <v>0.71799999999999997</v>
-      </c>
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="D33" s="30"/>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>2.5899999999999923E-2</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="F33" s="30">
         <v>0.08</v>
       </c>
       <c r="G33" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>FAIL</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" s="30">
-        <v>0.19109999999999999</v>
-      </c>
-      <c r="D34" s="30">
-        <v>0.2351</v>
-      </c>
+        <v>0.1966</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="30">
-        <f>IF(C34,ABS(C34-D34),"Not Run")</f>
-        <v>4.4000000000000011E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.1966</v>
       </c>
       <c r="F34" s="30">
         <v>0.08</v>
       </c>
       <c r="G34" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="30">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="D35" s="30">
-        <v>5.0500000000000003E-2</v>
-      </c>
+        <v>1.12E-2</v>
+      </c>
+      <c r="D35" s="30"/>
       <c r="E35" s="30">
-        <f>IF(C35,ABS(C35-D35),"Not Run")</f>
-        <v>8.4000000000000047E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.12E-2</v>
       </c>
       <c r="F35" s="30">
         <v>0.08</v>
@@ -4514,79 +6378,73 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="30">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="D36" s="30">
-        <v>9.1499999999999998E-2</v>
-      </c>
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="D36" s="30"/>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>1.84E-2</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="F36" s="30">
         <v>0.08</v>
       </c>
       <c r="G36" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="30">
-        <v>0.65720000000000001</v>
-      </c>
-      <c r="D37" s="30">
-        <v>0.62360000000000004</v>
-      </c>
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="D37" s="30"/>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>3.3599999999999963E-2</v>
+        <v>0.15210000000000001</v>
       </c>
       <c r="F37" s="30">
         <v>0.08</v>
       </c>
       <c r="G37" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" s="30">
-        <v>0.18140000000000001</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0.26429999999999998</v>
-      </c>
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D38" s="30"/>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>8.2899999999999974E-2</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="F38" s="30">
         <v>0.08</v>
@@ -4595,25 +6453,23 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D39" s="30">
-        <v>6.4399999999999999E-2</v>
-      </c>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="D39" s="33"/>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>7.7599999999999988E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="F39" s="30">
         <v>0.08</v>
@@ -4622,65 +6478,37 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="49">
-        <v>0.1138</v>
-      </c>
-      <c r="D40" s="49">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="E40" s="30">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999956E-3</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="G40" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H40:K40"/>
+  <mergeCells count="30">
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
@@ -4688,7 +6516,7 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G40">
+  <conditionalFormatting sqref="G12:G39">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
@@ -4707,12 +6535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5456C32-023B-493B-A691-A8BC4ED0F11F}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,65 +6555,61 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -4796,61 +6620,61 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="55"/>
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="53"/>
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -4862,20 +6686,20 @@
         <v>0.01</v>
       </c>
       <c r="G12" s="28" t="str">
-        <f t="shared" ref="G12:G40" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>Not Run</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -4890,15 +6714,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
@@ -4913,17 +6737,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
@@ -4938,17 +6762,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
@@ -4963,45 +6787,45 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="30" t="str">
-        <f>IF(C17,ABS(C17-D17)/D17,"Not Run")</f>
+      <c r="E17" s="10" t="str">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
         <v>Not Run</v>
       </c>
-      <c r="F17" s="29">
-        <v>0.03</v>
+      <c r="F17" s="19">
+        <v>0.6</v>
       </c>
       <c r="G17" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="10" t="str">
-        <f t="shared" ref="E18:E40" si="1">IF(C18,ABS(C18-D18),"Not Run")</f>
+        <f t="shared" si="1"/>
         <v>Not Run</v>
       </c>
       <c r="F18" s="19">
@@ -5011,15 +6835,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5034,15 +6858,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -5057,15 +6881,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5080,15 +6904,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -5103,65 +6927,65 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Not Run</v>
       </c>
-      <c r="F23" s="19">
-        <v>0.6</v>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="10" t="str">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Not Run</v>
       </c>
-      <c r="F24" s="32">
-        <v>5.0000000000000001E-3</v>
+      <c r="F24" s="30">
+        <v>0.08</v>
       </c>
       <c r="G24" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -5176,15 +7000,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -5199,15 +7023,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -5222,15 +7046,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -5245,15 +7069,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -5268,15 +7092,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -5291,15 +7115,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -5314,15 +7138,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -5337,17 +7163,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -5362,15 +7186,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -5385,15 +7209,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -5408,15 +7232,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -5431,15 +7255,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -5454,15 +7278,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -5477,18 +7301,18 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Not Run</v>
@@ -5500,69 +7324,45 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="G40" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
+  <mergeCells count="30">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="E1:M3"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G40">
+  <conditionalFormatting sqref="G12:G39">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BAF61-7DFB-4EE7-BF23-389EC756BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5E974-335B-4BE3-86A5-158D1C1740BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Shetland Ax T1" sheetId="5" r:id="rId3"/>
     <sheet name="Gartnavel" sheetId="7" r:id="rId4"/>
     <sheet name="Raig 2 Ax T1 SE" sheetId="8" r:id="rId5"/>
-    <sheet name="Raig 1 ACR AxT2" sheetId="9" r:id="rId6"/>
-    <sheet name="Template" sheetId="4" r:id="rId7"/>
+    <sheet name="Raig 2 Sag T1 SE" sheetId="10" r:id="rId6"/>
+    <sheet name="Raig 1 ACR AxT2" sheetId="9" r:id="rId7"/>
+    <sheet name="Raig Cor T1 SE" sheetId="11" r:id="rId8"/>
+    <sheet name="Template" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="91">
   <si>
     <t>Sequence</t>
   </si>
@@ -293,13 +295,28 @@
     <t>Signa Artist</t>
   </si>
   <si>
-    <t>Raig1_Ax_T1_SE</t>
-  </si>
-  <si>
     <t>Raig 2 Ax T1 SE'!A1</t>
   </si>
   <si>
     <t>Raig_1_Ax_T2</t>
+  </si>
+  <si>
+    <t>Raig 1 ACR AxT2'!A1</t>
+  </si>
+  <si>
+    <t>Raig2_Ax_T1_SE</t>
+  </si>
+  <si>
+    <t>Raig2_Sag_T1_SE</t>
+  </si>
+  <si>
+    <t>Raig 2 Sag T1 SE'!A1</t>
+  </si>
+  <si>
+    <t>Raig_2_Cor_T1</t>
+  </si>
+  <si>
+    <t>Raig Cor T1 SE'!A1</t>
   </si>
 </sst>
 </file>
@@ -358,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -915,12 +932,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -968,6 +996,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,14 +1055,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1587,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E31CE-8653-4894-8E4F-D4DEA5E43A27}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>77</v>
@@ -1664,7 +1767,7 @@
       <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="43" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1678,6 +1781,12 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1693,7 +1802,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,6 +1815,12 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1716,6 +1831,9 @@
       </c>
       <c r="C8" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1724,6 +1842,9 @@
     <hyperlink ref="E2" location="'Shetland Ax T1'!A1" display="'Shetland Ax T1'!A1" xr:uid="{2E8C2676-0C94-404A-A938-F29D2A8670F7}"/>
     <hyperlink ref="E4" location="Gartnavel!A1" display="Gartnavel!A1" xr:uid="{E5CB2BAD-24C7-4607-8AEC-2892A5B39488}"/>
     <hyperlink ref="E6" location="'Raig 2 Ax T1 SE'!A1" display="'Raig 2 Ax T1 SE'!A1" xr:uid="{D4201408-691F-436F-A3CE-0D6ABBB758B6}"/>
+    <hyperlink ref="E5" location="'Raig 1 ACR AxT2'!A1" display="'Raig 1 ACR AxT2'!A1" xr:uid="{526EC3D6-7D0E-4E02-973F-3FA76C575F57}"/>
+    <hyperlink ref="E7" location="'Raig 2 Sag T1 SE'!A1" display="'Raig 2 Sag T1 SE'!A1" xr:uid="{6662A0FB-A2AF-400E-8D60-29CBDAFFB28E}"/>
+    <hyperlink ref="E8" location="'Raig Cor T1 SE'!A1" display="'Raig Cor T1 SE'!A1" xr:uid="{C2B3BFB4-EB7E-483C-AD12-9A6C93420520}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,29 +1878,29 @@
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1789,15 +1910,15 @@
         <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1872,12 +1993,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -1897,16 +2018,16 @@
         <v>2.0742584526030811E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="28" t="str">
         <f t="shared" ref="G12:G18" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -1932,10 +2053,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1959,10 +2080,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -1988,10 +2109,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -2011,16 +2132,16 @@
         <v>2.2060606060605979E-2</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -2046,10 +2167,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -2073,10 +2194,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -2100,10 +2221,10 @@
         <f t="shared" ref="G19:G39" si="2">IF(E19 &lt;&gt; "Not Run", IF(F19, IF( E19&lt;=F19,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -2127,10 +2248,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -2154,10 +2275,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -2181,10 +2302,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -2210,10 +2331,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -2239,10 +2360,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
@@ -2266,10 +2387,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -2293,10 +2414,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -2320,10 +2441,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -2347,10 +2468,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -2374,10 +2495,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -2401,10 +2522,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -2428,10 +2549,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -2457,10 +2578,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -2484,12 +2605,12 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
@@ -2513,12 +2634,12 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -2542,10 +2663,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -2569,12 +2690,12 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -2598,10 +2719,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -2625,10 +2746,10 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -2652,12 +2773,12 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2693,16 +2814,16 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2715,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,29 +2860,29 @@
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2771,15 +2892,15 @@
         <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2854,12 +2975,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -2879,16 +3000,16 @@
         <v>5.7919123841616987E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="28" t="str">
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -2914,10 +3035,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -2941,10 +3062,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -2970,10 +3091,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -2993,16 +3114,16 @@
         <v>3.6758321273516734E-2</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -3028,10 +3149,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -3055,10 +3176,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -3082,10 +3203,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -3096,23 +3217,23 @@
         <v>79.8</v>
       </c>
       <c r="D20" s="21">
-        <v>79.13</v>
+        <v>79.81</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>0.67000000000000171</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="F20" s="19">
         <v>0.6</v>
       </c>
       <c r="G20" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -3136,10 +3257,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -3163,10 +3284,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -3192,10 +3313,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -3221,10 +3342,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
@@ -3248,10 +3369,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -3275,10 +3396,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -3302,10 +3423,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -3329,10 +3450,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -3356,10 +3477,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -3383,10 +3504,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -3410,10 +3531,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -3439,10 +3560,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -3466,10 +3587,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
@@ -3493,10 +3614,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -3520,10 +3641,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -3547,10 +3668,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -3574,12 +3695,12 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
         <v>65</v>
@@ -3601,10 +3722,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -3628,10 +3749,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3667,16 +3788,16 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3690,7 +3811,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,29 +3834,29 @@
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3745,15 +3866,15 @@
         <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3828,12 +3949,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -3853,16 +3974,16 @@
         <v>4.3290043290044244E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="28" t="str">
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -3888,10 +4009,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -3915,10 +4036,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -3944,10 +4065,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -3967,16 +4088,16 @@
         <v>4.1279300754866854E-2</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -4002,10 +4123,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -4029,10 +4150,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -4056,10 +4177,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -4083,10 +4204,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -4110,10 +4231,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -4137,10 +4258,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -4166,10 +4287,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -4195,10 +4316,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
@@ -4222,10 +4343,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -4249,10 +4370,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -4276,10 +4397,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -4303,10 +4424,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -4330,10 +4451,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -4357,10 +4478,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -4384,10 +4505,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -4413,10 +4534,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -4440,12 +4561,12 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
         <v>62</v>
@@ -4467,10 +4588,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -4494,10 +4615,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -4521,10 +4642,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -4548,10 +4669,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -4575,10 +4696,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -4602,10 +4723,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4641,16 +4762,16 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4663,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582CA64-840D-4D3C-A94A-D21D51863C48}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M3"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,34 +4803,34 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -4719,15 +4840,15 @@
         <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4765,7 +4886,7 @@
       <c r="D7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="44">
         <v>45440</v>
       </c>
       <c r="F7" s="17"/>
@@ -4802,12 +4923,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -4827,16 +4948,16 @@
         <v>6.9661052193803691E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="28" t="str">
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -4862,10 +4983,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -4889,10 +5010,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -4918,10 +5039,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -4941,16 +5062,16 @@
         <v>2.3524096385542176E-2</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -4976,10 +5097,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -5003,10 +5124,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -5030,10 +5151,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -5057,10 +5178,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -5084,10 +5205,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -5111,10 +5232,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -5140,10 +5261,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -5169,10 +5290,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
@@ -5196,10 +5317,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -5223,10 +5344,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -5250,10 +5371,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -5277,10 +5398,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -5304,10 +5425,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -5331,10 +5452,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -5358,10 +5479,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -5387,10 +5508,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -5414,12 +5535,12 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
         <v>62</v>
@@ -5441,10 +5562,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -5468,10 +5589,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -5495,10 +5616,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -5522,10 +5643,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -5549,10 +5670,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -5576,10 +5697,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5590,11 +5711,6 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
@@ -5602,29 +5718,34 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5634,11 +5755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8FDD34-E801-46AF-890C-E4C154CA5529}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5656,34 +5777,34 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5693,15 +5814,15 @@
         <v>68</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5716,7 +5837,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="9">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -5739,16 +5860,18 @@
       <c r="D7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="64">
+        <v>45440</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5774,12 +5897,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -5789,24 +5912,26 @@
         <v>39</v>
       </c>
       <c r="C12" s="26">
-        <v>0.76490000000000002</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26" t="e">
+        <v>0.9556</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>#DIV/0!</v>
+        <v>8.6108517481066228E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="28" t="e">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="28" t="str">
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -5816,24 +5941,26 @@
         <v>40</v>
       </c>
       <c r="C13" s="10">
-        <v>-1.56</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>-1.07</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.8</v>
+      </c>
       <c r="E13" s="10">
         <f>IF(C13,ABS(C13-D13),"Not Run")</f>
-        <v>1.56</v>
+        <v>0.27</v>
       </c>
       <c r="F13" s="19">
         <v>0.6</v>
       </c>
       <c r="G13" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -5841,12 +5968,14 @@
         <v>41</v>
       </c>
       <c r="C14" s="10">
-        <v>-1.76</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>4.88</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.63</v>
+      </c>
       <c r="E14" s="10">
         <f>IF(C14,ABS(C14-D14),"Not Run")</f>
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="F14" s="19">
         <v>0.6</v>
@@ -5855,10 +5984,10 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -5868,24 +5997,26 @@
         <v>42</v>
       </c>
       <c r="C15" s="10">
-        <v>5.15</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>4.96</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.07</v>
+      </c>
       <c r="E15" s="10">
         <f>IF(C15,ABS(C15-D15),"Not Run")</f>
-        <v>5.15</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="F15" s="19">
         <v>0.6</v>
       </c>
       <c r="G15" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -5895,26 +6026,26 @@
         <v>36</v>
       </c>
       <c r="C16" s="10">
-        <v>237.48</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="D16" s="3">
-        <v>237</v>
+        <v>305.98</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>2.0253164556961593E-3</v>
+        <v>2.6406954702921891E-2</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -5924,24 +6055,26 @@
         <v>52</v>
       </c>
       <c r="C17" s="3">
-        <v>79.67</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>79.95</v>
+      </c>
+      <c r="D17" s="3">
+        <v>80.510000000000005</v>
+      </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>79.67</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
       </c>
       <c r="G17" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -5949,24 +6082,26 @@
         <v>53</v>
       </c>
       <c r="C18" s="21">
-        <v>79.98</v>
-      </c>
-      <c r="D18" s="21"/>
+        <v>79.97</v>
+      </c>
+      <c r="D18" s="21">
+        <v>80.349999999999994</v>
+      </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>79.98</v>
+        <v>0.37999999999999545</v>
       </c>
       <c r="F18" s="19">
         <v>0.6</v>
       </c>
       <c r="G18" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -5974,24 +6109,26 @@
         <v>54</v>
       </c>
       <c r="C19" s="21">
-        <v>79.650000000000006</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>79.89</v>
+      </c>
+      <c r="D19" s="21">
+        <v>80.180000000000007</v>
+      </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>79.650000000000006</v>
+        <v>0.29000000000000625</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
       </c>
       <c r="G19" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -5999,24 +6136,26 @@
         <v>55</v>
       </c>
       <c r="C20" s="21">
-        <v>79.64</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>80.12</v>
+      </c>
+      <c r="D20" s="21">
+        <v>79.87</v>
+      </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>79.64</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="19">
         <v>0.6</v>
       </c>
       <c r="G20" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -6024,24 +6163,26 @@
         <v>56</v>
       </c>
       <c r="C21" s="21">
-        <v>79.930000000000007</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>80.239999999999995</v>
+      </c>
+      <c r="D21" s="21">
+        <v>80.19</v>
+      </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>79.930000000000007</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="F21" s="19">
         <v>0.6</v>
       </c>
       <c r="G21" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -6049,24 +6190,26 @@
         <v>57</v>
       </c>
       <c r="C22" s="21">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>80.2</v>
+      </c>
+      <c r="D22" s="21">
+        <v>79.87</v>
+      </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>80.069999999999993</v>
+        <v>0.32999999999999829</v>
       </c>
       <c r="F22" s="19">
         <v>0.6</v>
       </c>
       <c r="G22" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -6076,12 +6219,14 @@
         <v>43</v>
       </c>
       <c r="C23" s="31">
-        <v>2.7299999999999998E-3</v>
-      </c>
-      <c r="D23" s="31"/>
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1.8000000000000001E-4</v>
+      </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>2.7299999999999998E-3</v>
+        <v>1.8999999999999998E-4</v>
       </c>
       <c r="F23" s="32">
         <v>5.0000000000000001E-3</v>
@@ -6090,10 +6235,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -6102,184 +6247,216 @@
       <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C24" s="30">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>1.3900000000000023E-2</v>
       </c>
       <c r="F24" s="30">
         <v>0.08</v>
       </c>
       <c r="G24" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C25" s="30">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000172E-3</v>
       </c>
       <c r="F25" s="30">
         <v>0.08</v>
       </c>
       <c r="G25" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C26" s="30">
+        <v>0.504</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.48880000000000001</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>1.5199999999999991E-2</v>
       </c>
       <c r="F26" s="30">
         <v>0.08</v>
       </c>
       <c r="G26" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C27" s="30">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="F27" s="30">
         <v>0.08</v>
       </c>
       <c r="G27" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C28" s="30">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0099999999999998E-2</v>
       </c>
       <c r="F28" s="30">
         <v>0.08</v>
       </c>
       <c r="G28" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C29" s="30">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>9.4999999999999529E-3</v>
       </c>
       <c r="F29" s="30">
         <v>0.08</v>
       </c>
       <c r="G29" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C30" s="30">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>1.5499999999999958E-2</v>
       </c>
       <c r="F30" s="30">
         <v>0.08</v>
       </c>
       <c r="G30" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Run</v>
+      <c r="C31" s="30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D31" s="30">
+        <v>7.46E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F31" s="30">
         <v>0.08</v>
       </c>
       <c r="G31" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>Not Run</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -6289,24 +6466,26 @@
         <v>59</v>
       </c>
       <c r="C32" s="30">
-        <v>0.56710000000000005</v>
-      </c>
-      <c r="D32" s="30"/>
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.92010000000000003</v>
+      </c>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>0.56710000000000005</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="F32" s="30">
         <v>0.08</v>
       </c>
       <c r="G32" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -6314,49 +6493,53 @@
         <v>60</v>
       </c>
       <c r="C33" s="30">
-        <v>0.62160000000000004</v>
-      </c>
-      <c r="D33" s="30"/>
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.98099999999999998</v>
+      </c>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>0.62160000000000004</v>
+        <v>5.4999999999999494E-3</v>
       </c>
       <c r="F33" s="30">
         <v>0.08</v>
       </c>
       <c r="G33" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="30">
-        <v>0.1966</v>
-      </c>
-      <c r="D34" s="30"/>
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.6532</v>
+      </c>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>0.1966</v>
+        <v>3.4699999999999953E-2</v>
       </c>
       <c r="F34" s="30">
         <v>0.08</v>
       </c>
       <c r="G34" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -6364,12 +6547,14 @@
         <v>61</v>
       </c>
       <c r="C35" s="30">
-        <v>1.12E-2</v>
-      </c>
-      <c r="D35" s="30"/>
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0.1938</v>
+      </c>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>1.12E-2</v>
+        <v>1.4300000000000007E-2</v>
       </c>
       <c r="F35" s="30">
         <v>0.08</v>
@@ -6378,10 +6563,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -6389,24 +6574,26 @@
         <v>63</v>
       </c>
       <c r="C36" s="30">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="D36" s="30"/>
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.96789999999999998</v>
+      </c>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>0.30009999999999998</v>
+        <v>2.1900000000000031E-2</v>
       </c>
       <c r="F36" s="30">
         <v>0.08</v>
       </c>
       <c r="G36" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -6414,24 +6601,26 @@
         <v>64</v>
       </c>
       <c r="C37" s="30">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="D37" s="30"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.96789999999999998</v>
+      </c>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>0.15210000000000001</v>
+        <v>1.0099999999999998E-2</v>
       </c>
       <c r="F37" s="30">
         <v>0.08</v>
       </c>
       <c r="G37" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -6439,24 +6628,26 @@
         <v>65</v>
       </c>
       <c r="C38" s="30">
-        <v>8.3900000000000002E-2</v>
-      </c>
-      <c r="D38" s="30"/>
+        <v>0.56220000000000003</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.54779999999999995</v>
+      </c>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>8.3900000000000002E-2</v>
+        <v>1.4400000000000079E-2</v>
       </c>
       <c r="F38" s="30">
         <v>0.08</v>
       </c>
       <c r="G38" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -6464,12 +6655,14 @@
         <v>66</v>
       </c>
       <c r="C39" s="33">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="D39" s="33"/>
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.17180000000000001</v>
+      </c>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>6.2700000000000006E-2</v>
+        <v>5.9000000000000163E-3</v>
       </c>
       <c r="F39" s="30">
         <v>0.08</v>
@@ -6478,37 +6671,37 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="E1:M3"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
@@ -6536,11 +6729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5456C32-023B-493B-A691-A8BC4ED0F11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6557,31 +6750,1867 @@
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45552</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="64">
+        <v>45440</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>1.1118293471234572E-2</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-1.56</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-1.76</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1.41</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10">
+        <v>237.48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>237</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>2.0253164556961593E-3</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79.67</v>
+      </c>
+      <c r="D17" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>7.000000000000739E-2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>79.98</v>
+      </c>
+      <c r="D18" s="21">
+        <v>79.72</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="21">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D19" s="21">
+        <v>79.62</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21">
+        <v>79.64</v>
+      </c>
+      <c r="D20" s="21">
+        <v>79.489999999999995</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="21">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="D21" s="21">
+        <v>79.89</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="21">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D22" s="21">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9999999999986926E-2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1.34E-3</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3899999999999997E-3</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2399999999999967E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>1.26E-2</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="30">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000093E-3</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="30">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D30" s="30">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="30">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999923E-4</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000021E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.5585</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="1"/>
+        <v>6.3100000000000045E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.1966</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="1"/>
+        <v>3.570000000000001E-2</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999923E-4</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.2908</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>9.299999999999975E-3</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>7.6299999999999979E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="30">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="1"/>
+        <v>3.2100000000000004E-2</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="D39" s="33">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999994E-3</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G39">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626DC2B3-277F-4CC8-B025-80F1E465D1E0}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45552</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="64">
+        <v>45440</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26" t="str">
+        <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10" t="str">
+        <f>IF(C13,ABS(C13-D13),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10" t="str">
+        <f>IF(C14,ABS(C14-D14),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10" t="str">
+        <f>IF(C15,ABS(C15-D15),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="30" t="str">
+        <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10" t="str">
+        <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
+        <v>Not Run</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Run</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Run</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="E1:M3"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G12:G39">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"No Tolerance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5456C32-023B-493B-A691-A8BC4ED0F11F}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -6589,15 +8618,15 @@
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6662,12 +8691,12 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -6689,10 +8718,10 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>Not Run</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -6714,10 +8743,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -6737,10 +8766,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -6762,10 +8791,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -6781,16 +8810,16 @@
         <v>Not Run</v>
       </c>
       <c r="F16" s="29">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -6812,10 +8841,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -6835,10 +8864,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -6858,10 +8887,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -6881,10 +8910,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -6904,10 +8933,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -6927,10 +8956,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
@@ -6952,10 +8981,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -6977,10 +9006,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
@@ -7000,10 +9029,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -7023,10 +9052,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -7046,10 +9075,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -7069,10 +9098,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -7092,10 +9121,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -7115,10 +9144,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -7138,10 +9167,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -7163,10 +9192,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -7186,10 +9215,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
@@ -7209,10 +9238,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -7232,12 +9261,12 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
         <v>63</v>
@@ -7255,10 +9284,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -7278,10 +9307,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -7301,10 +9330,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -7324,10 +9353,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -7363,16 +9392,16 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F8AB9-17B3-460F-9738-6AEF1249D386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8CACB-5D40-457C-8B27-9FBDAAE107F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="90">
   <si>
     <t>Sequence</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Imngenia Ambition S</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Shetland Ax T1'!A1</t>
@@ -1735,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E31CE-8653-4894-8E4F-D4DEA5E43A27}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1776,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,7 +1827,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1844,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,10 +1858,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
         <v>72</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1910,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,14 +2090,14 @@
         <v>40</v>
       </c>
       <c r="C13" s="10">
-        <v>-0.39</v>
+        <v>-0.59</v>
       </c>
       <c r="D13" s="3">
         <v>-0.36</v>
       </c>
       <c r="E13" s="10">
         <f>IF(C13,ABS(C13-D13),"Not Run")</f>
-        <v>3.0000000000000027E-2</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="F13" s="19">
         <v>0.6</v>
@@ -2892,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3867,7 +3864,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
@@ -3961,7 +3958,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3979,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4859,7 +4856,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
@@ -4935,7 +4932,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5815,7 +5812,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5833,7 +5830,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
@@ -5909,7 +5906,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6024,21 +6021,21 @@
         <v>41</v>
       </c>
       <c r="C14" s="10">
-        <v>4.88</v>
+        <v>1.86</v>
       </c>
       <c r="D14" s="3">
         <v>1.63</v>
       </c>
       <c r="E14" s="10">
         <f>IF(C14,ABS(C14-D14),"Not Run")</f>
-        <v>3.25</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="F14" s="19">
         <v>0.6</v>
       </c>
       <c r="G14" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
@@ -6788,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6807,7 +6804,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
@@ -6883,7 +6880,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6971,14 +6968,14 @@
         <v>40</v>
       </c>
       <c r="C13" s="10">
-        <v>-1.56</v>
+        <v>-1.76</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.1200000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="E13" s="10">
         <f>IF(C13,ABS(C13-D13),"Not Run")</f>
-        <v>0.43999999999999995</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="F13" s="19">
         <v>0.6</v>
@@ -7762,7 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626DC2B3-277F-4CC8-B025-80F1E465D1E0}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -7781,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
@@ -7857,7 +7854,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8CACB-5D40-457C-8B27-9FBDAAE107F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68132F60-A921-487C-A036-7CE22422E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>Spatial Resoloution Contrast Response Manual</t>
   </si>
   <si>
-    <t>b0a868e</t>
-  </si>
-  <si>
     <t>Unclear Peaks and Troughs</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Raig Cor T1 SE'!A1</t>
+  </si>
+  <si>
+    <t>b1a449d</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1068,6 +1068,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E31CE-8653-4894-8E4F-D4DEA5E43A27}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1773,10 +1776,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>58</v>
@@ -1807,10 +1810,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,10 +1827,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,10 +1844,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,10 +1861,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,10 +1878,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1907,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,13 +1929,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -1956,11 +1959,11 @@
       <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="58"/>
@@ -1977,7 +1980,7 @@
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="68" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2659,7 +2662,7 @@
         <v>PASS</v>
       </c>
       <c r="H33" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
@@ -2688,7 +2691,7 @@
         <v>PASS</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
@@ -2744,7 +2747,7 @@
         <v>PASS</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
@@ -2827,7 +2830,7 @@
         <v>PASS</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
@@ -2880,8 +2883,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{8F91B50F-F2A8-4AE9-9F3E-E019D7B3E24C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2890,7 +2896,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,13 +2914,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -2941,8 +2947,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="58"/>
@@ -2984,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3854,8 +3860,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{2D478DC8-80A8-4930-A915-DB34ED49A88E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3863,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680AEDF1-8AC6-42DA-933A-EFE13CB6E68C}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,13 +3891,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -3915,8 +3924,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="64"/>
@@ -3958,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3976,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4828,8 +4837,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{F3EE1F87-DECD-4BBB-B618-2D984C5FECC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4837,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582CA64-840D-4D3C-A94A-D21D51863C48}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,13 +4868,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -4889,8 +4901,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="64"/>
@@ -4932,7 +4944,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5802,8 +5814,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{4C64D972-803D-4647-9573-C31D8CD275C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5812,7 +5827,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5830,13 +5845,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -5863,8 +5878,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="64"/>
@@ -5906,7 +5921,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6776,8 +6791,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{5CDAF4F3-24F6-4B87-9194-BB8058171F0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6785,8 +6803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,13 +6822,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -6837,8 +6855,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="64"/>
@@ -6880,7 +6898,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7750,8 +7768,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{E290C126-F8CF-44EC-BC06-742F8010BCA4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7759,8 +7780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626DC2B3-277F-4CC8-B025-80F1E465D1E0}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,13 +7799,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
@@ -7811,8 +7832,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="64"/>
@@ -7854,7 +7875,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8724,8 +8745,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{B720A8CD-4416-45DA-8F94-C8890B359398}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
+++ b/MedACRTestingSetAndResults/ACR Test Document  V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hazen-ScottishACR-Fork\MedACRTestingSetAndResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtrac01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68132F60-A921-487C-A036-7CE22422E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{6207ABE1-9B7E-4030-B65F-59F5A65BC542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A08380F-753F-48F3-A8D1-77355E97BB18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" xr2:uid="{FB94AA00-146E-4F69-A819-9104D1118357}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Raig 1 ACR AxT2" sheetId="9" r:id="rId7"/>
     <sheet name="Raig 2 Cor T1 SE" sheetId="11" r:id="rId8"/>
     <sheet name="Template" sheetId="4" r:id="rId9"/>
+    <sheet name="Averages" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,45 +45,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="92">
+  <si>
+    <t>Scanner and Site</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
   <si>
     <t>Sequence</t>
   </si>
   <si>
-    <t>Scanner and Site</t>
+    <t>Fully Passed?</t>
+  </si>
+  <si>
+    <t>Link to Results</t>
   </si>
   <si>
     <t>Shetland Philips Ingenia 1.5T</t>
   </si>
   <si>
-    <t>Fully Passed?</t>
+    <t>MedACRTestingSetAndResults\ACR_HNU_Shetland\DICOM</t>
+  </si>
+  <si>
+    <t>Ax_T1_ACR_Lothian</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Shetland Ax T1'!A1</t>
   </si>
   <si>
     <t>Forth Valley SIGNA</t>
   </si>
   <si>
+    <t>MedACRTestingSetAndResults\ACR Blair T1</t>
+  </si>
+  <si>
+    <t>ACR_Axial_T1</t>
+  </si>
+  <si>
+    <t>ForthValley Ax T1'!A1</t>
+  </si>
+  <si>
     <t>Gartnaval Philips Ingenia 1.5T</t>
+  </si>
+  <si>
+    <t>MedACRTestingSetAndResults\Blair Gartnavel</t>
+  </si>
+  <si>
+    <t>ACR_ax_T1</t>
+  </si>
+  <si>
+    <t>Gartnavel!A1</t>
   </si>
   <si>
     <t>Raigmore GE SIGNA Artist MRI 1</t>
   </si>
   <si>
-    <t>Raigmore GE SIGNA Artist MRI 2</t>
+    <t>MedACRTestingSetAndResults\Raigmore ACR MRI1 Test Data</t>
   </si>
   <si>
-    <t>FolderName</t>
+    <t>ACR AxT2</t>
   </si>
   <si>
-    <t>MedACRTestingSetAndResults\ACR_HNU_Shetland\DICOM</t>
+    <t>Raig 1 ACR AxT2'!A1</t>
   </si>
   <si>
-    <t>MedACRTestingSetAndResults\ACR Blair T1</t>
-  </si>
-  <si>
-    <t>MedACRTestingSetAndResults\Blair Gartnavel</t>
-  </si>
-  <si>
-    <t>MedACRTestingSetAndResults\Raigmore ACR MRI1 Test Data</t>
+    <t>Raigmore GE SIGNA Artist MRI 2</t>
   </si>
   <si>
     <t>MedACRTestingSetAndResults\Raigmore ACR MRI 2 Test data</t>
@@ -91,58 +122,22 @@
     <t>Ax T1 SE</t>
   </si>
   <si>
-    <t>ACR_Axial_T1</t>
-  </si>
-  <si>
-    <t>ACR_ax_T1</t>
-  </si>
-  <si>
-    <t>ACR AxT2</t>
+    <t>Raig 2 Ax T1 SE'!A1</t>
   </si>
   <si>
     <t>Sag T1 SE</t>
   </si>
   <si>
+    <t>Raig 2 Sag T1 SE'!A1</t>
+  </si>
+  <si>
     <t>Cor T1 SE</t>
   </si>
   <si>
-    <t>Ax_T1_ACR_Lothian</t>
+    <t>Raig Cor T1 SE'!A1</t>
   </si>
   <si>
-    <t>Link to Results</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>GE SIGNA Artist</t>
-  </si>
-  <si>
-    <t>Tested By</t>
-  </si>
-  <si>
-    <t>Scan Date</t>
-  </si>
-  <si>
-    <t>Test Date</t>
-  </si>
-  <si>
-    <t>Series Description</t>
-  </si>
-  <si>
-    <t>Git Commit</t>
-  </si>
-  <si>
-    <t>J Tracey</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t xml:space="preserve">Average differences from mnaual measurment </t>
   </si>
   <si>
     <t>Uniformity</t>
@@ -157,25 +152,61 @@
     <t>SNR</t>
   </si>
   <si>
+    <t>Geometric Accuracy MagNet Method</t>
+  </si>
+  <si>
     <t>Ghosting</t>
   </si>
   <si>
-    <t>Comparable Measurement</t>
+    <t>Spatial Resoloution Contrast Response Manual</t>
   </si>
   <si>
-    <t>Integral Uniformity</t>
+    <t>Spatial Resoloution Contrast Response Automatic</t>
   </si>
   <si>
-    <t>Distance Slice 1(mm)</t>
+    <t>Test Case ID</t>
   </si>
   <si>
-    <t>Distance Slice 11(mm)</t>
+    <t>ForthValley V1</t>
   </si>
   <si>
-    <t>Distance (mm)</t>
+    <t>Test Description</t>
   </si>
   <si>
-    <t>Signal-to-Bkgd ratio</t>
+    <t>Initial Overall Test</t>
+  </si>
+  <si>
+    <t>Git Commit</t>
+  </si>
+  <si>
+    <t>56d0095</t>
+  </si>
+  <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t>J Tracey</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>GE SIGNA Artist</t>
+  </si>
+  <si>
+    <t>Scan Date</t>
+  </si>
+  <si>
+    <t>Series Description</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Comparable Measurement</t>
   </si>
   <si>
     <t>Software Result</t>
@@ -196,10 +227,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Geometric Accuracy MagNet Method</t>
+    <t>Integral Uniformity</t>
   </si>
   <si>
-    <t>Spatial Resoloution Contrast Response Automatic</t>
+    <t>Distance Slice 1(mm)</t>
+  </si>
+  <si>
+    <t>Distance Slice 11(mm)</t>
+  </si>
+  <si>
+    <t>Distance (mm)</t>
   </si>
   <si>
     <t>Row Top (mm)</t>
@@ -220,7 +257,7 @@
     <t>Col Bottom (mm)</t>
   </si>
   <si>
-    <t>ForthValley Ax T1'!A1</t>
+    <t>Signal-to-Bkgd ratio</t>
   </si>
   <si>
     <t>1.1mm Horizontal</t>
@@ -229,10 +266,10 @@
     <t>1.0mm Horizontal</t>
   </si>
   <si>
-    <t>0.8mm Horizontal</t>
+    <t>0.9mm Horizontal</t>
   </si>
   <si>
-    <t>0.9mm Horizontal</t>
+    <t>0.8mm Horizontal</t>
   </si>
   <si>
     <t>1.1mm Vertical</t>
@@ -247,31 +284,19 @@
     <t>0.8mm Vertical</t>
   </si>
   <si>
-    <t>Spatial Resoloution Contrast Response Manual</t>
+    <t>First peak not captured in range</t>
   </si>
   <si>
     <t>Unclear Peaks and Troughs</t>
   </si>
   <si>
-    <t>First peak not captured in range</t>
-  </si>
-  <si>
-    <t>ForthValley V1</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Shetland Ax T1 V1</t>
-  </si>
-  <si>
-    <t>Initial Overall Test</t>
   </si>
   <si>
     <t>Imngenia Ambition S</t>
   </si>
   <si>
-    <t>Shetland Ax T1'!A1</t>
+    <t>Gart_Ax_V1</t>
   </si>
   <si>
     <t>Philips Ingenia 1.5T</t>
@@ -280,40 +305,22 @@
     <t>ACR_ac_T1</t>
   </si>
   <si>
-    <t>Gart_Ax_V1</t>
-  </si>
-  <si>
-    <t>Gartnavel!A1</t>
+    <t>Raig2_Ax_T1_SE</t>
   </si>
   <si>
     <t>Signa Artist</t>
   </si>
   <si>
-    <t>Raig 2 Ax T1 SE'!A1</t>
+    <t>Raig2_Sag_T1_SE</t>
   </si>
   <si>
     <t>Raig_1_Ax_T2</t>
   </si>
   <si>
-    <t>Raig 1 ACR AxT2'!A1</t>
-  </si>
-  <si>
-    <t>Raig2_Ax_T1_SE</t>
-  </si>
-  <si>
-    <t>Raig2_Sag_T1_SE</t>
-  </si>
-  <si>
-    <t>Raig 2 Sag T1 SE'!A1</t>
-  </si>
-  <si>
     <t>Raig_2_Cor_T1</t>
   </si>
   <si>
-    <t>Raig Cor T1 SE'!A1</t>
-  </si>
-  <si>
-    <t>b1a449d</t>
+    <t>Averages</t>
   </si>
 </sst>
 </file>
@@ -325,7 +332,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1009,6 +1016,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,47 +1080,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1400,6 +1379,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1733,164 +1732,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E31CE-8653-4894-8E4F-D4DEA5E43A27}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="30">
+        <f>Averages!C2</f>
+        <v>6.6906562276002612E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="52">
+        <f>AVERAGE(Averages!C3:C4)</f>
+        <v>0.22571428571428573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="52">
+        <f>AVERAGE(Averages!C5)</f>
+        <v>0.18857142857142847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="30">
+        <f>Averages!C6</f>
+        <v>1.7117055847886236E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="52">
+        <f>AVERAGE(Averages!C7:C12)</f>
+        <v>0.21000000000000052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="30">
+        <f>AVERAGE(Averages!C13)</f>
+        <v>8.0999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="30">
+        <f>AVERAGE(Averages!C14:C21)</f>
+        <v>1.6425000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="30">
+        <f>AVERAGE(Averages!C22:C29)</f>
+        <v>2.8485714285714284E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1906,15 +1982,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5781A3-6786-41A7-A64E-8623515B78F4}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E12,'Shetland Ax T1'!E12,Gartnavel!E12,'Raig 2 Ax T1 SE'!E12,'Raig 1 ACR AxT2'!E12,'Raig 2 Cor T1 SE'!E12,'Raig 2 Sag T1 SE'!E12)</f>
+        <v>6.6906562276002612E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E13,'Shetland Ax T1'!E13,Gartnavel!E13,'Raig 2 Ax T1 SE'!E13,'Raig 1 ACR AxT2'!E13,'Raig 2 Cor T1 SE'!E13,'Raig 2 Sag T1 SE'!E13)</f>
+        <v>0.24857142857142861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E14,'Shetland Ax T1'!E14,Gartnavel!E14,'Raig 2 Ax T1 SE'!E14,'Raig 1 ACR AxT2'!E14,'Raig 2 Cor T1 SE'!E14,'Raig 2 Sag T1 SE'!E14)</f>
+        <v>0.20285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E15,'Shetland Ax T1'!E15,Gartnavel!E15,'Raig 2 Ax T1 SE'!E15,'Raig 1 ACR AxT2'!E15,'Raig 2 Cor T1 SE'!E15,'Raig 2 Sag T1 SE'!E15)</f>
+        <v>0.18857142857142847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E16,'Shetland Ax T1'!E16,Gartnavel!E16,'Raig 2 Ax T1 SE'!E16,'Raig 1 ACR AxT2'!E16,'Raig 2 Cor T1 SE'!E16,'Raig 2 Sag T1 SE'!E16)</f>
+        <v>1.7117055847886236E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E17,'Shetland Ax T1'!E17,Gartnavel!E17,'Raig 2 Ax T1 SE'!E17,'Raig 1 ACR AxT2'!E17,'Raig 2 Cor T1 SE'!E17,'Raig 2 Sag T1 SE'!E17)</f>
+        <v>0.23285714285714423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E18,'Shetland Ax T1'!E18,Gartnavel!E18,'Raig 2 Ax T1 SE'!E18,'Raig 1 ACR AxT2'!E18,'Raig 2 Cor T1 SE'!E18,'Raig 2 Sag T1 SE'!E18)</f>
+        <v>0.21999999999999684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E19,'Shetland Ax T1'!E19,Gartnavel!E19,'Raig 2 Ax T1 SE'!E19,'Raig 1 ACR AxT2'!E19,'Raig 2 Cor T1 SE'!E19,'Raig 2 Sag T1 SE'!E19)</f>
+        <v>0.2428571428571453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E20,'Shetland Ax T1'!E20,Gartnavel!E20,'Raig 2 Ax T1 SE'!E20,'Raig 1 ACR AxT2'!E20,'Raig 2 Cor T1 SE'!E20,'Raig 2 Sag T1 SE'!E20)</f>
+        <v>0.20857142857143174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E21,'Shetland Ax T1'!E21,Gartnavel!E21,'Raig 2 Ax T1 SE'!E21,'Raig 1 ACR AxT2'!E21,'Raig 2 Cor T1 SE'!E21,'Raig 2 Sag T1 SE'!E21)</f>
+        <v>0.14571428571428718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="51">
+        <f>AVERAGE('ForthValley Ax T1'!E22,'Shetland Ax T1'!E22,Gartnavel!E22,'Raig 2 Ax T1 SE'!E22,'Raig 1 ACR AxT2'!E22,'Raig 2 Cor T1 SE'!E22,'Raig 2 Sag T1 SE'!E22)</f>
+        <v>0.2099999999999978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E23,'Shetland Ax T1'!E23,Gartnavel!E23,'Raig 2 Ax T1 SE'!E23,'Raig 1 ACR AxT2'!E23,'Raig 2 Cor T1 SE'!E23,'Raig 2 Sag T1 SE'!E23)</f>
+        <v>8.0999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E24,'Shetland Ax T1'!E24,Gartnavel!E24,'Raig 2 Ax T1 SE'!E24,'Raig 1 ACR AxT2'!E24,'Raig 2 Cor T1 SE'!E24,'Raig 2 Sag T1 SE'!E24)</f>
+        <v>1.7885714285714283E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E25,'Shetland Ax T1'!E25,Gartnavel!E25,'Raig 2 Ax T1 SE'!E25,'Raig 1 ACR AxT2'!E25,'Raig 2 Cor T1 SE'!E25,'Raig 2 Sag T1 SE'!E25)</f>
+        <v>1.3928571428571441E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E26,'Shetland Ax T1'!E26,Gartnavel!E26,'Raig 2 Ax T1 SE'!E26,'Raig 1 ACR AxT2'!E26,'Raig 2 Cor T1 SE'!E26,'Raig 2 Sag T1 SE'!E26)</f>
+        <v>1.3571428571428573E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E27,'Shetland Ax T1'!E27,Gartnavel!E27,'Raig 2 Ax T1 SE'!E27,'Raig 1 ACR AxT2'!E27,'Raig 2 Cor T1 SE'!E27,'Raig 2 Sag T1 SE'!E27)</f>
+        <v>1.3385714285714287E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E28,'Shetland Ax T1'!E28,Gartnavel!E28,'Raig 2 Ax T1 SE'!E28,'Raig 1 ACR AxT2'!E28,'Raig 2 Cor T1 SE'!E28,'Raig 2 Sag T1 SE'!E28)</f>
+        <v>1.8242857142857147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E29,'Shetland Ax T1'!E29,Gartnavel!E29,'Raig 2 Ax T1 SE'!E29,'Raig 1 ACR AxT2'!E29,'Raig 2 Cor T1 SE'!E29,'Raig 2 Sag T1 SE'!E29)</f>
+        <v>1.4785714285714291E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E30,'Shetland Ax T1'!E30,Gartnavel!E30,'Raig 2 Ax T1 SE'!E30,'Raig 1 ACR AxT2'!E30,'Raig 2 Cor T1 SE'!E30,'Raig 2 Sag T1 SE'!E30)</f>
+        <v>1.3442857142857133E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E31,'Shetland Ax T1'!E31,Gartnavel!E31,'Raig 2 Ax T1 SE'!E31,'Raig 1 ACR AxT2'!E31,'Raig 2 Cor T1 SE'!E31,'Raig 2 Sag T1 SE'!E31)</f>
+        <v>2.6157142857142858E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E32,'Shetland Ax T1'!E32,Gartnavel!E32,'Raig 2 Ax T1 SE'!E32,'Raig 1 ACR AxT2'!E32,'Raig 2 Cor T1 SE'!E32,'Raig 2 Sag T1 SE'!E32)</f>
+        <v>1.8814285714285721E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E33,'Shetland Ax T1'!E33,Gartnavel!E33,'Raig 2 Ax T1 SE'!E33,'Raig 1 ACR AxT2'!E33,'Raig 2 Cor T1 SE'!E33,'Raig 2 Sag T1 SE'!E33)</f>
+        <v>3.3071428571428564E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E34,'Shetland Ax T1'!E34,Gartnavel!E34,'Raig 2 Ax T1 SE'!E34,'Raig 1 ACR AxT2'!E34,'Raig 2 Cor T1 SE'!E34,'Raig 2 Sag T1 SE'!E34)</f>
+        <v>2.734285714285712E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E35,'Shetland Ax T1'!E35,Gartnavel!E35,'Raig 2 Ax T1 SE'!E35,'Raig 1 ACR AxT2'!E35,'Raig 2 Cor T1 SE'!E35,'Raig 2 Sag T1 SE'!E35)</f>
+        <v>1.9514285714285717E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E36,'Shetland Ax T1'!E36,Gartnavel!E36,'Raig 2 Ax T1 SE'!E36,'Raig 1 ACR AxT2'!E36,'Raig 2 Cor T1 SE'!E36,'Raig 2 Sag T1 SE'!E36)</f>
+        <v>3.671428571428572E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E37,'Shetland Ax T1'!E37,Gartnavel!E37,'Raig 2 Ax T1 SE'!E37,'Raig 1 ACR AxT2'!E37,'Raig 2 Cor T1 SE'!E37,'Raig 2 Sag T1 SE'!E37)</f>
+        <v>2.9071428571428574E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E38,'Shetland Ax T1'!E38,Gartnavel!E38,'Raig 2 Ax T1 SE'!E38,'Raig 1 ACR AxT2'!E38,'Raig 2 Cor T1 SE'!E38,'Raig 2 Sag T1 SE'!E38)</f>
+        <v>4.1614285714285708E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="50">
+        <f>AVERAGE('ForthValley Ax T1'!E39,'Shetland Ax T1'!E39,Gartnavel!E39,'Raig 2 Ax T1 SE'!E39,'Raig 1 ACR AxT2'!E39,'Raig 2 Cor T1 SE'!E39,'Raig 2 Sag T1 SE'!E39)</f>
+        <v>2.1742857142857144E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0AF14-82B7-4E02-914B-3F448BA33919}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -1924,69 +2321,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
@@ -2000,17 +2397,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="38" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="18">
         <v>45365</v>
@@ -2018,60 +2415,60 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
-        <v>0.96220000000000006</v>
+        <v>0.95989999999999998</v>
       </c>
       <c r="D12" s="27">
         <v>0.96419999999999995</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>2.0742584526030811E-3</v>
+        <v>4.4596556730968377E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.02</v>
@@ -2080,17 +2477,17 @@
         <f t="shared" ref="G12:G18" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>-0.59</v>
@@ -2109,15 +2506,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>-1.17</v>
@@ -2136,17 +2533,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>5.0999999999999996</v>
@@ -2165,27 +2562,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>337.28</v>
+        <v>336.49</v>
       </c>
       <c r="D16" s="3">
         <v>330</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>2.2060606060605979E-2</v>
+        <v>1.9666666666666693E-2</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -2194,27 +2591,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>80.069999999999993</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="D17" s="3">
         <v>79.81</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>0.25999999999999091</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -2223,15 +2620,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.650000000000006</v>
@@ -2250,25 +2647,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>80.010000000000005</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="D19" s="21">
         <v>80.2</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.18999999999999773</v>
+        <v>0.13000000000000966</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -2277,15 +2674,15 @@
         <f t="shared" ref="G19:G39" si="2">IF(E19 &lt;&gt; "Not Run", IF(F19, IF( E19&lt;=F19,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>80.23</v>
@@ -2304,15 +2701,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>79.930000000000007</v>
@@ -2331,15 +2728,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>80.28</v>
@@ -2358,27 +2755,27 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
-        <v>8.0000000000000007E-5</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D23" s="31">
         <v>1E-4</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>1.9999999999999998E-5</v>
+        <v>3.0000000000000011E-5</v>
       </c>
       <c r="F23" s="32">
         <v>5.0000000000000001E-3</v>
@@ -2387,17 +2784,17 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.34200000000000003</v>
@@ -2416,15 +2813,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.45</v>
@@ -2443,15 +2840,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>8.0000000000000002E-3</v>
@@ -2470,15 +2867,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>2.1999999999999999E-2</v>
@@ -2497,15 +2894,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.20100000000000001</v>
@@ -2524,15 +2921,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>9.1999999999999998E-2</v>
@@ -2551,15 +2948,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>7.0000000000000007E-2</v>
@@ -2578,15 +2975,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>1.9E-2</v>
@@ -2605,17 +3002,17 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.49940000000000001</v>
@@ -2634,15 +3031,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.4098</v>
@@ -2661,17 +3058,17 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>7.2599999999999998E-2</v>
@@ -2690,17 +3087,17 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>3.56E-2</v>
@@ -2719,15 +3116,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.3221</v>
@@ -2746,17 +3143,17 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.1123</v>
@@ -2775,15 +3172,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>7.4899999999999994E-2</v>
@@ -2802,15 +3199,15 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>4.1000000000000003E-3</v>
@@ -2829,12 +3226,12 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2870,21 +3267,21 @@
     <mergeCell ref="H21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{8F91B50F-F2A8-4AE9-9F3E-E019D7B3E24C}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{BE12B763-C663-4787-A80D-71CDBCF3A9EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2895,11 +3292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C778D-5EB5-4889-A075-77A66F89D068}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -2909,69 +3306,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
@@ -2985,17 +3382,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="41">
         <v>45447</v>
@@ -3003,50 +3400,50 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
         <v>0.94410000000000005</v>
@@ -3065,17 +3462,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>1.17</v>
@@ -3094,15 +3491,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>0.2</v>
@@ -3121,17 +3518,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>5.08</v>
@@ -3150,27 +3547,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>286.56</v>
+        <v>286.18</v>
       </c>
       <c r="D16" s="3">
         <v>292.05</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>1.8798151001540864E-2</v>
+        <v>2.0099298065399774E-2</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -3179,27 +3576,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>79.59</v>
+        <v>79.63</v>
       </c>
       <c r="D17" s="3">
         <v>80.03</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>0.43999999999999773</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -3208,15 +3605,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.94</v>
@@ -3235,25 +3632,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>79.63</v>
+        <v>79.59</v>
       </c>
       <c r="D19" s="21">
         <v>80.010000000000005</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.38000000000000966</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -3262,15 +3659,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>79.8</v>
@@ -3289,15 +3686,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>79.8</v>
@@ -3316,15 +3713,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>79.900000000000006</v>
@@ -3343,17 +3740,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
         <v>2.3000000000000001E-4</v>
@@ -3372,17 +3769,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.54200000000000004</v>
@@ -3401,15 +3798,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.24299999999999999</v>
@@ -3428,15 +3825,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.13700000000000001</v>
@@ -3455,15 +3852,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>0.125</v>
@@ -3482,15 +3879,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.63800000000000001</v>
@@ -3509,15 +3906,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.42499999999999999</v>
@@ -3536,15 +3933,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>0.13700000000000001</v>
@@ -3563,15 +3960,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>9.9000000000000005E-2</v>
@@ -3590,17 +3987,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.72540000000000004</v>
@@ -3619,15 +4016,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.32150000000000001</v>
@@ -3646,15 +4043,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>8.8700000000000001E-2</v>
@@ -3673,15 +4070,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>6.0600000000000001E-2</v>
@@ -3700,15 +4097,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.74519999999999997</v>
@@ -3727,15 +4124,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.48259999999999997</v>
@@ -3754,15 +4151,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>0.1164</v>
@@ -3781,15 +4178,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>0.1095</v>
@@ -3808,10 +4205,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3847,21 +4244,21 @@
     <mergeCell ref="H19:K19"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{2D478DC8-80A8-4930-A915-DB34ED49A88E}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{858C1019-C6DE-4058-A1E4-69500B1E3CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3872,11 +4269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680AEDF1-8AC6-42DA-933A-EFE13CB6E68C}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -3886,69 +4283,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="70"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
@@ -3962,17 +4359,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="65" t="s">
-        <v>24</v>
+    <row r="6" spans="1:13">
+      <c r="D6" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="35">
         <v>45370</v>
@@ -3980,60 +4377,60 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
-        <v>0.97440000000000004</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D12" s="27">
         <v>0.97019999999999995</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>4.3290043290044244E-3</v>
+        <v>3.9167182024325148E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.02</v>
@@ -4042,17 +4439,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>1.56</v>
@@ -4071,15 +4468,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>-0.39</v>
@@ -4098,17 +4495,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>4.9400000000000004</v>
@@ -4127,27 +4524,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>262.08999999999997</v>
+        <v>262.01</v>
       </c>
       <c r="D16" s="3">
         <v>266.74</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>1.7432706005848519E-2</v>
+        <v>1.7732623528529723E-2</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -4156,27 +4553,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>79.94</v>
+        <v>79.66</v>
       </c>
       <c r="D17" s="3">
         <v>79.83</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>0.10999999999999943</v>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -4185,15 +4582,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.3</v>
@@ -4212,25 +4609,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>79.66</v>
+        <v>79.94</v>
       </c>
       <c r="D19" s="21">
         <v>80.150000000000006</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.49000000000000909</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -4239,15 +4636,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>80.11</v>
@@ -4266,15 +4663,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>79.63</v>
@@ -4293,15 +4690,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>79.97</v>
@@ -4320,27 +4717,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
-        <v>4.0999999999999999E-4</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="D23" s="30">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>1.1000000000000002E-4</v>
+        <v>1.2000000000000004E-4</v>
       </c>
       <c r="F23" s="32">
         <v>5.0000000000000001E-3</v>
@@ -4349,22 +4746,22 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="47">
         <v>0.51049999999999995</v>
       </c>
       <c r="E24" s="30">
@@ -4378,15 +4775,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.161</v>
@@ -4405,15 +4802,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.113</v>
@@ -4432,15 +4829,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>0.01</v>
@@ -4459,15 +4856,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.52</v>
@@ -4486,15 +4883,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.2</v>
@@ -4513,15 +4910,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>7.3999999999999996E-2</v>
@@ -4540,15 +4937,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>4.7E-2</v>
@@ -4567,17 +4964,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.69210000000000005</v>
@@ -4596,15 +4993,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.19109999999999999</v>
@@ -4623,15 +5020,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>4.2099999999999999E-2</v>
@@ -4650,15 +5047,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>7.3099999999999998E-2</v>
@@ -4677,15 +5074,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.65720000000000001</v>
@@ -4704,15 +5101,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.18140000000000001</v>
@@ -4731,15 +5128,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>0.14199999999999999</v>
@@ -4758,15 +5155,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>0.1138</v>
@@ -4785,10 +5182,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4824,21 +5221,21 @@
     <mergeCell ref="H19:K19"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{F3EE1F87-DECD-4BBB-B618-2D984C5FECC7}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB68616A-0014-43D7-99EA-A7A68785E211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4849,11 +5246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582CA64-840D-4D3C-A94A-D21D51863C48}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -4863,69 +5260,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="70"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
@@ -4939,17 +5336,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="44">
         <v>45440</v>
@@ -4957,60 +5354,60 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
-        <v>0.95509999999999995</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="D12" s="27">
         <v>0.96179999999999999</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>6.9661052193803691E-3</v>
+        <v>3.1191515907673141E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.02</v>
@@ -5019,17 +5416,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>1.86</v>
@@ -5048,15 +5445,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>1.27</v>
@@ -5075,17 +5472,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>5.53</v>
@@ -5104,27 +5501,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>324.19</v>
+        <v>318.95999999999998</v>
       </c>
       <c r="D16" s="3">
-        <v>332</v>
+        <v>327.98</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>2.3524096385542176E-2</v>
+        <v>2.7501676931520332E-2</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -5133,27 +5530,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>79.87</v>
+        <v>79.7</v>
       </c>
       <c r="D17" s="3">
         <v>79.900000000000006</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>3.0000000000001137E-2</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -5162,15 +5559,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.98</v>
@@ -5189,25 +5586,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>79.7</v>
+        <v>79.87</v>
       </c>
       <c r="D19" s="21">
         <v>79.7</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -5216,15 +5613,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>79.97</v>
@@ -5243,15 +5640,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>80.099999999999994</v>
@@ -5270,15 +5667,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>80.2</v>
@@ -5297,27 +5694,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
-        <v>1.3999999999999999E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="D23" s="31">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>1.5999999999999999E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F23" s="32">
         <v>5.0000000000000001E-3</v>
@@ -5326,17 +5723,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.95299999999999996</v>
@@ -5355,15 +5752,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.84899999999999998</v>
@@ -5382,15 +5779,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.52</v>
@@ -5409,15 +5806,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>9.3700000000000006E-2</v>
@@ -5436,15 +5833,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.89700000000000002</v>
@@ -5463,15 +5860,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.85799999999999998</v>
@@ -5490,15 +5887,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>0.438</v>
@@ -5517,15 +5914,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>0.17899999999999999</v>
@@ -5544,17 +5941,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.98609999999999998</v>
@@ -5573,15 +5970,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.93489999999999995</v>
@@ -5600,15 +5997,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>0.66930000000000001</v>
@@ -5627,15 +6024,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>0.1867</v>
@@ -5654,15 +6051,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.97650000000000003</v>
@@ -5681,15 +6078,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.95660000000000001</v>
@@ -5708,15 +6105,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>0.498</v>
@@ -5735,15 +6132,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>0.20419999999999999</v>
@@ -5762,10 +6159,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5801,21 +6198,21 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{4C64D972-803D-4647-9573-C31D8CD275C3}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F33D26C6-E3BB-432C-B6DB-C7574C2CE5F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5826,11 +6223,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8FDD34-E801-46AF-890C-E4C154CA5529}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -5840,69 +6237,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="70"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45547</v>
@@ -5916,17 +6313,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45">
         <v>45440</v>
@@ -5934,50 +6331,50 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
         <v>0.9556</v>
@@ -5996,17 +6393,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>-1.07</v>
@@ -6025,15 +6422,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>1.86</v>
@@ -6052,17 +6449,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>4.96</v>
@@ -6081,17 +6478,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
         <v>297.89999999999998</v>
@@ -6110,27 +6507,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>79.95</v>
+        <v>79.89</v>
       </c>
       <c r="D17" s="3">
-        <v>80.510000000000005</v>
+        <v>80.25</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>0.56000000000000227</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -6139,15 +6536,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.97</v>
@@ -6166,25 +6563,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>79.89</v>
+        <v>79.95</v>
       </c>
       <c r="D19" s="21">
         <v>80.180000000000007</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.29000000000000625</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -6193,15 +6590,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>80.12</v>
@@ -6220,15 +6617,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>80.2</v>
@@ -6247,15 +6644,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>80.2</v>
@@ -6274,17 +6671,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
         <v>3.6999999999999999E-4</v>
@@ -6303,17 +6700,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.90200000000000002</v>
@@ -6332,15 +6729,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.82699999999999996</v>
@@ -6359,15 +6756,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.504</v>
@@ -6386,15 +6783,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>4.3999999999999997E-2</v>
@@ -6413,15 +6810,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.95399999999999996</v>
@@ -6440,15 +6837,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.90800000000000003</v>
@@ -6467,15 +6864,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>0.48499999999999999</v>
@@ -6494,15 +6891,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>3.6999999999999998E-2</v>
@@ -6521,17 +6918,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.96350000000000002</v>
@@ -6550,15 +6947,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.97550000000000003</v>
@@ -6577,15 +6974,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>0.68789999999999996</v>
@@ -6604,15 +7001,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>0.17949999999999999</v>
@@ -6631,15 +7028,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.98980000000000001</v>
@@ -6658,15 +7055,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.97799999999999998</v>
@@ -6685,15 +7082,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>0.56220000000000003</v>
@@ -6712,15 +7109,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>0.16589999999999999</v>
@@ -6739,10 +7136,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6778,21 +7175,21 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{5CDAF4F3-24F6-4B87-9194-BB8058171F0B}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{79B0DA4B-4844-4DF0-9416-C940EF6F2459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6803,11 +7200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC8280-D452-469E-AA20-08D428679600}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -6817,69 +7214,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="70"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45552</v>
@@ -6893,17 +7290,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45">
         <v>45440</v>
@@ -6911,60 +7308,60 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
-        <v>0.76490000000000002</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="D12" s="27">
         <v>0.77039999999999997</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>7.1391484942886158E-3</v>
+        <v>5.4517133956386056E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.02</v>
@@ -6973,17 +7370,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>-1.76</v>
@@ -7002,15 +7399,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>-1.76</v>
@@ -7029,17 +7426,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>5.15</v>
@@ -7058,27 +7455,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>237.48</v>
+        <v>237.85</v>
       </c>
       <c r="D16" s="3">
         <v>237</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>2.0253164556961593E-3</v>
+        <v>3.5864978902953345E-3</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -7087,27 +7484,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>79.67</v>
+        <v>79.83</v>
       </c>
       <c r="D17" s="3">
         <v>79.599999999999994</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E39" si="1">IF(C17,ABS(C17-D17),"Not Run")</f>
-        <v>7.000000000000739E-2</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
@@ -7116,15 +7513,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.98</v>
@@ -7143,25 +7540,25 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
-        <v>79.83</v>
+        <v>79.67</v>
       </c>
       <c r="D19" s="21">
         <v>79.62</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>0.20999999999999375</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="F19" s="19">
         <v>0.6</v>
@@ -7170,15 +7567,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>79.64</v>
@@ -7197,15 +7594,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>79.98</v>
@@ -7224,15 +7621,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>80.11</v>
@@ -7251,27 +7648,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
-        <v>2.7299999999999998E-3</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="D23" s="31">
         <v>1.34E-3</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>1.3899999999999997E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="F23" s="32">
         <v>5.0000000000000001E-3</v>
@@ -7280,17 +7677,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.51800000000000002</v>
@@ -7309,15 +7706,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.57999999999999996</v>
@@ -7336,15 +7733,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.03</v>
@@ -7363,15 +7760,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>6.9000000000000006E-2</v>
@@ -7390,15 +7787,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.19500000000000001</v>
@@ -7417,15 +7814,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.125</v>
@@ -7444,15 +7841,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>9.4E-2</v>
@@ -7471,15 +7868,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>0.06</v>
@@ -7498,17 +7895,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.56710000000000005</v>
@@ -7527,15 +7924,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.62160000000000004</v>
@@ -7554,15 +7951,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>0.1966</v>
@@ -7581,15 +7978,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>1.12E-2</v>
@@ -7608,15 +8005,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.30009999999999998</v>
@@ -7635,15 +8032,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.15210000000000001</v>
@@ -7662,15 +8059,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>8.3900000000000002E-2</v>
@@ -7689,15 +8086,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>6.2700000000000006E-2</v>
@@ -7716,10 +8113,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -7755,21 +8152,21 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{E290C126-F8CF-44EC-BC06-742F8010BCA4}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7940AE6B-8ADE-4AED-8ADB-FA1DA05EE4F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7780,11 +8177,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626DC2B3-277F-4CC8-B025-80F1E465D1E0}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -7794,69 +8191,69 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="70"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>45552</v>
@@ -7870,17 +8267,17 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45">
         <v>45440</v>
@@ -7888,60 +8285,60 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
-        <v>0.95279999999999998</v>
+        <v>0.9506</v>
       </c>
       <c r="D12" s="27">
         <v>0.95820000000000005</v>
       </c>
       <c r="E12" s="26">
         <f>IF(C12,ABS(C12-D12)/D12,"Not Run")</f>
-        <v>5.6355666875392103E-3</v>
+        <v>7.9315383009810596E-3</v>
       </c>
       <c r="F12" s="27">
         <v>0.02</v>
@@ -7950,17 +8347,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>PASS</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>-1.86</v>
@@ -7979,15 +8376,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>0.59</v>
@@ -8006,17 +8403,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>4.8499999999999996</v>
@@ -8035,27 +8432,27 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
-        <v>274.58999999999997</v>
+        <v>272.98</v>
       </c>
       <c r="D16" s="3">
         <v>274.30369999999999</v>
       </c>
       <c r="E16" s="30">
         <f>IF(C16,ABS(C16-D16)/D16,"Not Run")</f>
-        <v>1.0437336426740978E-3</v>
+        <v>4.8256731498699211E-3</v>
       </c>
       <c r="F16" s="29">
         <v>0.03</v>
@@ -8064,17 +8461,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
         <v>79.83</v>
@@ -8093,15 +8490,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21">
         <v>79.900000000000006</v>
@@ -8120,15 +8517,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21">
         <v>79.83</v>
@@ -8147,15 +8544,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21">
         <v>79.77</v>
@@ -8174,15 +8571,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21">
         <v>80.27</v>
@@ -8201,15 +8598,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21">
         <v>80.17</v>
@@ -8228,17 +8625,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31">
         <v>2.5000000000000001E-4</v>
@@ -8257,17 +8654,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>0.93300000000000005</v>
@@ -8286,15 +8683,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>0.86599999999999999</v>
@@ -8313,15 +8710,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30">
         <v>0.57799999999999996</v>
@@ -8340,15 +8737,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30">
         <v>0.03</v>
@@ -8367,15 +8764,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30">
         <v>0.92</v>
@@ -8394,15 +8791,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30">
         <v>0.879</v>
@@ -8421,15 +8818,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30">
         <v>0.372</v>
@@ -8448,15 +8845,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30">
         <v>0.105</v>
@@ -8475,17 +8872,17 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30">
         <v>0.98140000000000005</v>
@@ -8504,15 +8901,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.94369999999999998</v>
@@ -8531,15 +8928,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>0.64139999999999997</v>
@@ -8558,15 +8955,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30">
         <v>0.16289999999999999</v>
@@ -8585,15 +8982,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <v>0.98640000000000005</v>
@@ -8612,15 +9009,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
         <v>0.97050000000000003</v>
@@ -8639,15 +9036,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30">
         <v>0.51380000000000003</v>
@@ -8666,15 +9063,15 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33">
         <v>0.23080000000000001</v>
@@ -8693,10 +9090,10 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -8732,21 +9129,21 @@
     <mergeCell ref="H38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://github.com/NHSH-MRI-Physics/Hazen-ScottishACR-Fork/commit/b1a449d7c53f9983bb2e519d0d39b4f64e521758" xr:uid="{B720A8CD-4416-45DA-8F94-C8890B359398}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F41DA94E-4FEE-4A86-808E-F3F79A2164F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8761,7 +9158,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -8771,61 +9168,61 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="5"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9"/>
       <c r="F5" s="16"/>
@@ -8837,62 +9234,62 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="D7" s="34" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -8907,17 +9304,17 @@
         <f t="shared" ref="G12:G39" si="0">IF(E12 &lt;&gt; "Not Run", IF(F12, IF( E12&lt;=F12,"PASS","FAIL"),"No Tolerance"), "Not Run")</f>
         <v>Not Run</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -8932,15 +9329,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
@@ -8955,17 +9352,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
@@ -8980,17 +9377,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
@@ -9005,17 +9402,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9030,15 +9427,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -9053,15 +9450,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -9076,15 +9473,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -9099,15 +9496,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -9122,15 +9519,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -9145,17 +9542,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -9170,17 +9567,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -9195,15 +9592,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -9218,15 +9615,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -9241,15 +9638,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -9264,15 +9661,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -9287,15 +9684,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -9310,15 +9707,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -9333,15 +9730,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -9356,17 +9753,17 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -9381,15 +9778,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -9404,15 +9801,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -9427,15 +9824,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="13"/>
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -9450,15 +9847,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -9473,15 +9870,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -9496,15 +9893,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -9519,15 +9916,15 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -9542,10 +9939,10 @@
         <f t="shared" si="0"/>
         <v>Not Run</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -9581,20 +9978,307 @@
     <mergeCell ref="H19:K19"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No Tolerance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cbe1fdb1-0590-4ac8-b289-0e18866762ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3111cb03-c1d7-49db-8220-f16a1d16f93b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56150E02D859D4F96EACB54E3C6CCDA" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="857de0e137e2a8f7b8aa66b97ab88941">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3111cb03-c1d7-49db-8220-f16a1d16f93b" xmlns:ns3="cbe1fdb1-0590-4ac8-b289-0e18866762ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aa03d2f949fa60474f36daf8de568a4" ns2:_="" ns3:_="">
+    <xsd:import namespace="3111cb03-c1d7-49db-8220-f16a1d16f93b"/>
+    <xsd:import namespace="cbe1fdb1-0590-4ac8-b289-0e18866762ff"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3111cb03-c1d7-49db-8220-f16a1d16f93b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="16ac32b6-d060-42fb-93c0-6c46742e1aee" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbe1fdb1-0590-4ac8-b289-0e18866762ff" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3c1b89a4-98af-4dd5-bcfa-631b3b0615b5}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cbe1fdb1-0590-4ac8-b289-0e18866762ff">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD316D3-4EF5-4B63-86CB-DA29998B0736}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998325DF-3A59-45E9-AD16-A16D6B10ECF7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2696EE7-2598-4551-9F5F-BBB0C68C50BE}"/>
 </file>